--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3064252.459485235</v>
+        <v>3068429.228728015</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8938556.991332296</v>
+        <v>8938556.991332302</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2840926.744020633</v>
+        <v>2840926.744020632</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7417918.969662805</v>
+        <v>7417918.969662806</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>296.1523238554957</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>285.5624737051711</v>
       </c>
       <c r="E11" t="n">
-        <v>312.8098021567499</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>328.0637209477792</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>342.8926796225509</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>236.6657449725641</v>
       </c>
       <c r="I11" t="n">
         <v>14.53725931381597</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.94024881819951</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>139.5755392739857</v>
@@ -1427,10 +1427,10 @@
         <v>181.9619257941589</v>
       </c>
       <c r="V11" t="n">
-        <v>258.6316905546231</v>
+        <v>208.8371987647693</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>280.1204008019012</v>
       </c>
       <c r="X11" t="n">
         <v>300.6105327629572</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97.41261573435551</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>126.5153619915625</v>
+        <v>103.5879310728039</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>88.52451253988912</v>
+        <v>88.52451253988907</v>
       </c>
       <c r="F12" t="n">
-        <v>75.94864447787205</v>
+        <v>75.94864447787201</v>
       </c>
       <c r="G12" t="n">
-        <v>66.46291694534359</v>
+        <v>135.5834848608554</v>
       </c>
       <c r="H12" t="n">
-        <v>26.1166696113961</v>
+        <v>26.11666961139606</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>22.92743091875726</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>69.87077511607013</v>
+        <v>69.87077511607009</v>
       </c>
       <c r="T12" t="n">
-        <v>123.9499954904306</v>
+        <v>193.0705634059425</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8255904821357</v>
+        <v>156.7050225666238</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>163.6800192339134</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1515,7 +1515,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>136.5621278617925</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>110.7114122664255</v>
+        <v>110.7114122664254</v>
       </c>
       <c r="C13" t="n">
-        <v>98.12625318311601</v>
+        <v>98.12625318311596</v>
       </c>
       <c r="D13" t="n">
-        <v>79.49490510270053</v>
+        <v>79.49490510270049</v>
       </c>
       <c r="E13" t="n">
-        <v>77.31339473105734</v>
+        <v>77.3133947310573</v>
       </c>
       <c r="F13" t="n">
-        <v>76.30048010741942</v>
+        <v>76.30048010741938</v>
       </c>
       <c r="G13" t="n">
-        <v>97.39485948396923</v>
+        <v>97.3948594839692</v>
       </c>
       <c r="H13" t="n">
-        <v>79.98760626574344</v>
+        <v>79.98760626574416</v>
       </c>
       <c r="I13" t="n">
-        <v>41.95603537267169</v>
+        <v>41.95603537267165</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.8266417425332</v>
+        <v>41.82664174253308</v>
       </c>
       <c r="S13" t="n">
-        <v>129.1811837090946</v>
+        <v>129.1811837090945</v>
       </c>
       <c r="T13" t="n">
         <v>152.5203904153195</v>
       </c>
       <c r="U13" t="n">
-        <v>217.1179767886713</v>
+        <v>217.1179767886715</v>
       </c>
       <c r="V13" t="n">
-        <v>183.0170754083162</v>
+        <v>183.0170754083161</v>
       </c>
       <c r="W13" t="n">
-        <v>217.4024304210792</v>
+        <v>217.4024304210791</v>
       </c>
       <c r="X13" t="n">
         <v>156.5890874735253</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.464085436583</v>
+        <v>149.4640854365829</v>
       </c>
     </row>
     <row r="14">
@@ -1610,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>285.5624737051711</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>312.8098021567499</v>
       </c>
       <c r="F14" t="n">
-        <v>337.7554778261996</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>342.8926796225509</v>
@@ -1625,7 +1625,7 @@
         <v>236.6657449725641</v>
       </c>
       <c r="I14" t="n">
-        <v>14.53725931381599</v>
+        <v>14.53725931381598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>64.94024881819946</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>139.5755392739857</v>
       </c>
       <c r="U14" t="n">
         <v>181.9619257941589</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>258.631690554623</v>
       </c>
       <c r="W14" t="n">
-        <v>212.4824082120317</v>
+        <v>106.4460350329997</v>
       </c>
       <c r="X14" t="n">
-        <v>300.6105327629572</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>317.1173707405418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>120.3400466531138</v>
+        <v>97.41261573435547</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>103.5879310728039</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>78.32449764912688</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>75.94864447787201</v>
       </c>
       <c r="G15" t="n">
         <v>135.5834848608554</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>69.87077511607015</v>
+        <v>138.991343031582</v>
       </c>
       <c r="T15" t="n">
         <v>123.9499954904306</v>
@@ -1743,13 +1743,13 @@
         <v>156.7050225666238</v>
       </c>
       <c r="V15" t="n">
-        <v>163.6800192339134</v>
+        <v>186.6074501526705</v>
       </c>
       <c r="W15" t="n">
-        <v>182.5744152454078</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>136.6524172879656</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>136.5621278617925</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>110.7114122664255</v>
+        <v>110.7114122664254</v>
       </c>
       <c r="C16" t="n">
-        <v>98.12625318311601</v>
+        <v>98.12625318311596</v>
       </c>
       <c r="D16" t="n">
-        <v>79.49490510270053</v>
+        <v>79.49490510270049</v>
       </c>
       <c r="E16" t="n">
-        <v>77.31339473105734</v>
+        <v>77.3133947310573</v>
       </c>
       <c r="F16" t="n">
-        <v>76.30048010741942</v>
+        <v>76.30048010741938</v>
       </c>
       <c r="G16" t="n">
-        <v>97.39485948396923</v>
+        <v>97.39485948396919</v>
       </c>
       <c r="H16" t="n">
-        <v>79.98760626574403</v>
+        <v>79.98760626574418</v>
       </c>
       <c r="I16" t="n">
-        <v>41.95603537267169</v>
+        <v>41.95603537267166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.82664174253321</v>
+        <v>41.82664174253318</v>
       </c>
       <c r="S16" t="n">
-        <v>129.1811837090943</v>
+        <v>129.1811837090945</v>
       </c>
       <c r="T16" t="n">
         <v>152.5203904153195</v>
       </c>
       <c r="U16" t="n">
-        <v>217.1179767886706</v>
+        <v>217.1179767886711</v>
       </c>
       <c r="V16" t="n">
-        <v>183.0170754083162</v>
+        <v>183.0170754083161</v>
       </c>
       <c r="W16" t="n">
-        <v>217.4024304210792</v>
+        <v>217.4024304210791</v>
       </c>
       <c r="X16" t="n">
         <v>156.5890874735253</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.464085436583</v>
+        <v>149.4640854365829</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>313.6132737479687</v>
       </c>
       <c r="C17" t="n">
-        <v>296.1523238554957</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>285.5624737051711</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>312.8098021567499</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>337.7554778261996</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>342.8926796225509</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>33.25982571662689</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.94024881819948</v>
+        <v>64.94024881819945</v>
       </c>
       <c r="T17" t="n">
-        <v>139.5755392739857</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>227.2551079317193</v>
+        <v>258.631690554623</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>280.1204008019012</v>
       </c>
       <c r="X17" t="n">
-        <v>300.6105327629572</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>317.1173707405417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1920,25 +1920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>97.41261573435548</v>
+        <v>97.41261573435547</v>
       </c>
       <c r="C18" t="n">
         <v>103.5879310728039</v>
       </c>
       <c r="D18" t="n">
-        <v>78.3244976491269</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>88.52451253988909</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>75.94864447787201</v>
       </c>
       <c r="G18" t="n">
-        <v>89.39034786410188</v>
+        <v>66.46291694534355</v>
       </c>
       <c r="H18" t="n">
-        <v>95.23723752690793</v>
+        <v>49.04410053015387</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>69.87077511607012</v>
+        <v>138.991343031582</v>
       </c>
       <c r="T18" t="n">
-        <v>123.9499954904306</v>
+        <v>193.0705634059425</v>
       </c>
       <c r="U18" t="n">
         <v>156.7050225666238</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>163.6800192339134</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>136.6524172879656</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2002,25 +2002,25 @@
         <v>110.7114122664254</v>
       </c>
       <c r="C19" t="n">
-        <v>98.12625318311598</v>
+        <v>98.12625318311596</v>
       </c>
       <c r="D19" t="n">
-        <v>79.4949051027005</v>
+        <v>79.49490510270049</v>
       </c>
       <c r="E19" t="n">
-        <v>77.31339473105731</v>
+        <v>77.3133947310573</v>
       </c>
       <c r="F19" t="n">
-        <v>76.30048010741939</v>
+        <v>76.30048010741938</v>
       </c>
       <c r="G19" t="n">
-        <v>97.3948594839692</v>
+        <v>97.39485948396919</v>
       </c>
       <c r="H19" t="n">
         <v>79.98760626574418</v>
       </c>
       <c r="I19" t="n">
-        <v>41.95603537267166</v>
+        <v>41.95603537267165</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.82664174253318</v>
+        <v>41.82664174253317</v>
       </c>
       <c r="S19" t="n">
         <v>129.1811837090945</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>313.6132737479687</v>
       </c>
       <c r="C20" t="n">
-        <v>207.4455353152124</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>285.5624737051711</v>
       </c>
       <c r="E20" t="n">
         <v>312.8098021567499</v>
@@ -2096,7 +2096,7 @@
         <v>342.8926796225509</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>236.6657449725641</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.94024881819948</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>139.5755392739857</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>258.631690554623</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>193.8477344851919</v>
       </c>
       <c r="X20" t="n">
-        <v>300.6105327629572</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>317.1173707405417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,25 +2157,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>97.41261573435547</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>103.5879310728039</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>88.52451253988909</v>
+        <v>88.52451253988907</v>
       </c>
       <c r="F21" t="n">
-        <v>75.94864447787202</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>66.46291694534357</v>
+        <v>89.39034786410133</v>
       </c>
       <c r="H21" t="n">
-        <v>26.11666961139607</v>
+        <v>95.23723752690793</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>69.87077511607012</v>
+        <v>138.991343031582</v>
       </c>
       <c r="T21" t="n">
-        <v>146.877426409189</v>
+        <v>123.9499954904306</v>
       </c>
       <c r="U21" t="n">
         <v>156.7050225666238</v>
@@ -2223,7 +2223,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>136.6524172879656</v>
       </c>
       <c r="Y21" t="n">
         <v>136.5621278617925</v>
@@ -2239,25 +2239,25 @@
         <v>110.7114122664254</v>
       </c>
       <c r="C22" t="n">
-        <v>98.12625318311598</v>
+        <v>98.12625318311596</v>
       </c>
       <c r="D22" t="n">
-        <v>79.4949051027005</v>
+        <v>79.49490510270049</v>
       </c>
       <c r="E22" t="n">
-        <v>77.31339473105731</v>
+        <v>77.3133947310573</v>
       </c>
       <c r="F22" t="n">
-        <v>76.30048010741939</v>
+        <v>76.30048010741938</v>
       </c>
       <c r="G22" t="n">
-        <v>97.39485948396921</v>
+        <v>97.3948594839692</v>
       </c>
       <c r="H22" t="n">
-        <v>79.98760626574418</v>
+        <v>79.98760626574416</v>
       </c>
       <c r="I22" t="n">
-        <v>41.95603537267166</v>
+        <v>41.95603537267165</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.8266417425333</v>
+        <v>41.82664174253286</v>
       </c>
       <c r="S22" t="n">
         <v>129.1811837090945</v>
@@ -2336,7 +2336,7 @@
         <v>236.6657449725641</v>
       </c>
       <c r="I23" t="n">
-        <v>14.53725931381597</v>
+        <v>14.53725931381595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.94024881819948</v>
+        <v>64.94024881819946</v>
       </c>
       <c r="T23" t="n">
         <v>139.5755392739857</v>
       </c>
       <c r="U23" t="n">
-        <v>181.9619257941586</v>
+        <v>181.961925794159</v>
       </c>
       <c r="V23" t="n">
         <v>258.631690554623</v>
@@ -2476,25 +2476,25 @@
         <v>110.7114122664254</v>
       </c>
       <c r="C25" t="n">
-        <v>98.12625318311598</v>
+        <v>98.12625318311596</v>
       </c>
       <c r="D25" t="n">
-        <v>79.4949051027005</v>
+        <v>79.49490510270049</v>
       </c>
       <c r="E25" t="n">
-        <v>77.31339473105731</v>
+        <v>77.3133947310573</v>
       </c>
       <c r="F25" t="n">
-        <v>76.30048010741939</v>
+        <v>76.30048010741938</v>
       </c>
       <c r="G25" t="n">
-        <v>97.3948594839692</v>
+        <v>97.39485948396919</v>
       </c>
       <c r="H25" t="n">
         <v>79.98760626574418</v>
       </c>
       <c r="I25" t="n">
-        <v>41.95603537267166</v>
+        <v>41.95603537267165</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.82664174253318</v>
+        <v>41.82664174253317</v>
       </c>
       <c r="S25" t="n">
         <v>129.1811837090945</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>313.6132737479687</v>
+        <v>313.6132737479686</v>
       </c>
       <c r="C26" t="n">
         <v>296.1523238554956</v>
@@ -2561,7 +2561,7 @@
         <v>285.562473705171</v>
       </c>
       <c r="E26" t="n">
-        <v>312.8098021567499</v>
+        <v>312.8098021567498</v>
       </c>
       <c r="F26" t="n">
         <v>337.7554778261995</v>
@@ -2573,7 +2573,7 @@
         <v>236.665744972564</v>
       </c>
       <c r="I26" t="n">
-        <v>14.5372593138164</v>
+        <v>14.53725931381588</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,16 +2606,16 @@
         <v>64.94024881819939</v>
       </c>
       <c r="T26" t="n">
-        <v>139.5755392739857</v>
+        <v>139.5755392739856</v>
       </c>
       <c r="U26" t="n">
-        <v>181.9619257941588</v>
+        <v>181.961925794159</v>
       </c>
       <c r="V26" t="n">
         <v>258.631690554623</v>
       </c>
       <c r="W26" t="n">
-        <v>280.1204008019011</v>
+        <v>280.120400801901</v>
       </c>
       <c r="X26" t="n">
         <v>300.6105327629571</v>
@@ -2713,25 +2713,25 @@
         <v>110.7114122664254</v>
       </c>
       <c r="C28" t="n">
-        <v>98.12625318311591</v>
+        <v>98.12625318311589</v>
       </c>
       <c r="D28" t="n">
-        <v>79.49490510270043</v>
+        <v>79.49490510270041</v>
       </c>
       <c r="E28" t="n">
-        <v>77.31339473105724</v>
+        <v>77.31339473105723</v>
       </c>
       <c r="F28" t="n">
-        <v>76.30048010741932</v>
+        <v>76.30048010742155</v>
       </c>
       <c r="G28" t="n">
-        <v>97.39485948396913</v>
+        <v>97.39485948396911</v>
       </c>
       <c r="H28" t="n">
-        <v>79.98760626574412</v>
+        <v>79.98760626574409</v>
       </c>
       <c r="I28" t="n">
-        <v>41.95603537267318</v>
+        <v>41.95603537267158</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.82664174253311</v>
+        <v>41.8266417425331</v>
       </c>
       <c r="S28" t="n">
         <v>129.1811837090945</v>
@@ -2779,7 +2779,7 @@
         <v>156.5890874735252</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.4640854365829</v>
+        <v>149.4640854365828</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.94024881819901</v>
+        <v>64.94024881819946</v>
       </c>
       <c r="T29" t="n">
         <v>139.5755392739857</v>
       </c>
       <c r="U29" t="n">
-        <v>181.9619257941594</v>
+        <v>181.961925794159</v>
       </c>
       <c r="V29" t="n">
         <v>258.631690554623</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.7114122664255</v>
+        <v>110.7114122664254</v>
       </c>
       <c r="C31" t="n">
-        <v>98.12625318311599</v>
+        <v>98.12625318311598</v>
       </c>
       <c r="D31" t="n">
-        <v>79.49490510270051</v>
+        <v>79.4949051027005</v>
       </c>
       <c r="E31" t="n">
-        <v>77.31339473105733</v>
+        <v>77.31339473105731</v>
       </c>
       <c r="F31" t="n">
-        <v>76.3004801074194</v>
+        <v>76.30048010741939</v>
       </c>
       <c r="G31" t="n">
         <v>97.39485948396921</v>
       </c>
       <c r="H31" t="n">
-        <v>79.98760626574428</v>
+        <v>79.98760626574418</v>
       </c>
       <c r="I31" t="n">
-        <v>41.95603537267168</v>
+        <v>41.95603537267166</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.8266417425332</v>
+        <v>41.82664174253318</v>
       </c>
       <c r="S31" t="n">
         <v>129.1811837090945</v>
@@ -3004,7 +3004,7 @@
         <v>152.5203904153195</v>
       </c>
       <c r="U31" t="n">
-        <v>217.1179767886711</v>
+        <v>217.1179767886713</v>
       </c>
       <c r="V31" t="n">
         <v>183.0170754083161</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>313.6132737479687</v>
+        <v>313.6132737479686</v>
       </c>
       <c r="C32" t="n">
-        <v>296.1523238554957</v>
+        <v>296.1523238554956</v>
       </c>
       <c r="D32" t="n">
-        <v>285.5624737051711</v>
+        <v>285.562473705171</v>
       </c>
       <c r="E32" t="n">
-        <v>312.8098021567499</v>
+        <v>312.8098021567498</v>
       </c>
       <c r="F32" t="n">
-        <v>337.7554778261996</v>
+        <v>337.7554778261995</v>
       </c>
       <c r="G32" t="n">
         <v>342.8926796225509</v>
       </c>
       <c r="H32" t="n">
-        <v>236.6657449725641</v>
+        <v>236.665744972564</v>
       </c>
       <c r="I32" t="n">
-        <v>14.53725931381597</v>
+        <v>14.53725931381588</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.94024881819948</v>
+        <v>64.94024881819946</v>
       </c>
       <c r="T32" t="n">
-        <v>139.5755392739855</v>
+        <v>139.5755392739856</v>
       </c>
       <c r="U32" t="n">
-        <v>181.961925794159</v>
+        <v>181.9619257941586</v>
       </c>
       <c r="V32" t="n">
         <v>258.631690554623</v>
       </c>
       <c r="W32" t="n">
-        <v>280.1204008019012</v>
+        <v>280.120400801901</v>
       </c>
       <c r="X32" t="n">
-        <v>300.6105327629572</v>
+        <v>300.6105327629571</v>
       </c>
       <c r="Y32" t="n">
         <v>317.1173707405417</v>
@@ -3187,25 +3187,25 @@
         <v>110.7114122664254</v>
       </c>
       <c r="C34" t="n">
-        <v>98.12625318311598</v>
+        <v>98.12625318311589</v>
       </c>
       <c r="D34" t="n">
-        <v>79.4949051027005</v>
+        <v>79.49490510270041</v>
       </c>
       <c r="E34" t="n">
-        <v>77.31339473105731</v>
+        <v>77.31339473105723</v>
       </c>
       <c r="F34" t="n">
-        <v>76.30048010741939</v>
+        <v>76.3004801074193</v>
       </c>
       <c r="G34" t="n">
-        <v>97.3948594839692</v>
+        <v>97.39485948396911</v>
       </c>
       <c r="H34" t="n">
-        <v>79.98760626574418</v>
+        <v>79.98760626574409</v>
       </c>
       <c r="I34" t="n">
-        <v>41.95603537267166</v>
+        <v>41.95603537267158</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.82664174253318</v>
+        <v>41.8266417425331</v>
       </c>
       <c r="S34" t="n">
         <v>129.1811837090945</v>
       </c>
       <c r="T34" t="n">
-        <v>152.5203904153195</v>
+        <v>152.5203904153194</v>
       </c>
       <c r="U34" t="n">
         <v>217.1179767886711</v>
@@ -3250,10 +3250,10 @@
         <v>217.4024304210791</v>
       </c>
       <c r="X34" t="n">
-        <v>156.5890874735253</v>
+        <v>156.5890874735252</v>
       </c>
       <c r="Y34" t="n">
-        <v>149.4640854365829</v>
+        <v>149.4640854365828</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>275.7534800047303</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>247.7026799619327</v>
+        <v>241.197228801198</v>
       </c>
       <c r="E35" t="n">
-        <v>274.9500084135116</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>299.8956840829612</v>
       </c>
       <c r="G35" t="n">
-        <v>143.4315583256772</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>198.8059512293257</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>27.08045507496114</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>101.7157455307474</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>144.1021320509205</v>
       </c>
       <c r="V35" t="n">
-        <v>220.7718968113847</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>242.2606070586628</v>
+        <v>242.2606070586627</v>
       </c>
       <c r="X35" t="n">
         <v>262.7507390197188</v>
       </c>
       <c r="Y35" t="n">
-        <v>279.2575769973034</v>
+        <v>279.2575769973033</v>
       </c>
     </row>
     <row r="36">
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>59.55282199111714</v>
+        <v>59.55282199111707</v>
       </c>
       <c r="C36" t="n">
-        <v>137.0310412859661</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>50.66471879665075</v>
+        <v>50.66471879665067</v>
       </c>
       <c r="F36" t="n">
-        <v>38.08885073463368</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>28.60312320210522</v>
+        <v>135.5834848608554</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>95.23723752690793</v>
       </c>
       <c r="I36" t="n">
-        <v>28.79902945892189</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>225.8255904821357</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>125.820225490675</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>103.6573194331422</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>98.70233411855409</v>
       </c>
     </row>
     <row r="37">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.8516185231871</v>
+        <v>72.85161852318703</v>
       </c>
       <c r="C37" t="n">
-        <v>60.26645943987764</v>
+        <v>60.26645943987756</v>
       </c>
       <c r="D37" t="n">
-        <v>41.63511135946216</v>
+        <v>41.63511135946209</v>
       </c>
       <c r="E37" t="n">
-        <v>39.45360098781897</v>
+        <v>39.4536009878189</v>
       </c>
       <c r="F37" t="n">
-        <v>38.44068636418105</v>
+        <v>38.44068636418098</v>
       </c>
       <c r="G37" t="n">
-        <v>59.53506574073086</v>
+        <v>59.53506574073079</v>
       </c>
       <c r="H37" t="n">
-        <v>42.12781252250584</v>
+        <v>42.12781252250577</v>
       </c>
       <c r="I37" t="n">
-        <v>4.096241629433322</v>
+        <v>4.096241629433251</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3.966847999294842</v>
+        <v>3.966847999294771</v>
       </c>
       <c r="S37" t="n">
-        <v>91.3213899658562</v>
+        <v>91.32138996585613</v>
       </c>
       <c r="T37" t="n">
-        <v>178.456747651949</v>
+        <v>178.4567476519501</v>
       </c>
       <c r="U37" t="n">
-        <v>179.2581830454328</v>
+        <v>179.2581830454327</v>
       </c>
       <c r="V37" t="n">
-        <v>145.1572816650778</v>
+        <v>145.1572816650777</v>
       </c>
       <c r="W37" t="n">
-        <v>179.5426366778408</v>
+        <v>179.5426366778407</v>
       </c>
       <c r="X37" t="n">
-        <v>118.729293730287</v>
+        <v>118.7292937302869</v>
       </c>
       <c r="Y37" t="n">
-        <v>111.6042916933446</v>
+        <v>111.6042916933445</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>275.7534800047304</v>
+        <v>275.7534800047303</v>
       </c>
       <c r="C38" t="n">
         <v>258.2925301122573</v>
       </c>
       <c r="D38" t="n">
-        <v>32.12101270024169</v>
+        <v>247.7026799619327</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>152.1193797859286</v>
       </c>
       <c r="F38" t="n">
-        <v>299.8956840829612</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>305.0328858793126</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>198.8059512293257</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>27.08045507496114</v>
+        <v>27.08045507496107</v>
       </c>
       <c r="T38" t="n">
-        <v>101.7157455307474</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>144.1021320509205</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>220.7718968113847</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>242.2606070586627</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>262.7507390197188</v>
       </c>
       <c r="Y38" t="n">
-        <v>279.2575769973034</v>
+        <v>279.2575769973033</v>
       </c>
     </row>
     <row r="39">
@@ -3579,28 +3579,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>142.5988500793599</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>65.72813732956554</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>40.46470390588856</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>50.66471879665075</v>
+        <v>50.66471879665067</v>
       </c>
       <c r="F39" t="n">
-        <v>38.08885073463368</v>
+        <v>38.08885073463361</v>
       </c>
       <c r="G39" t="n">
-        <v>28.60312320210522</v>
+        <v>128.7050566174279</v>
       </c>
       <c r="H39" t="n">
-        <v>95.23723752690793</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>28.79902945892189</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>225.8255904821357</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>125.820225490675</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>98.70233411855409</v>
       </c>
     </row>
     <row r="40">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.8516185231871</v>
+        <v>72.85161852318703</v>
       </c>
       <c r="C40" t="n">
-        <v>60.26645943987764</v>
+        <v>60.26645943987756</v>
       </c>
       <c r="D40" t="n">
-        <v>41.63511135946216</v>
+        <v>41.63511135946209</v>
       </c>
       <c r="E40" t="n">
-        <v>39.45360098781897</v>
+        <v>39.4536009878189</v>
       </c>
       <c r="F40" t="n">
-        <v>38.44068636418105</v>
+        <v>38.44068636418098</v>
       </c>
       <c r="G40" t="n">
-        <v>59.53506574073086</v>
+        <v>59.53506574073079</v>
       </c>
       <c r="H40" t="n">
-        <v>42.12781252250584</v>
+        <v>42.12781252250577</v>
       </c>
       <c r="I40" t="n">
-        <v>4.096241629433322</v>
+        <v>67.89239260930292</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>3.966847999294842</v>
+        <v>3.966847999294771</v>
       </c>
       <c r="S40" t="n">
-        <v>155.1175409457241</v>
+        <v>91.32138996585613</v>
       </c>
       <c r="T40" t="n">
         <v>114.6605966720811</v>
       </c>
       <c r="U40" t="n">
-        <v>179.2581830454328</v>
+        <v>179.2581830454327</v>
       </c>
       <c r="V40" t="n">
-        <v>145.1572816650778</v>
+        <v>145.1572816650777</v>
       </c>
       <c r="W40" t="n">
-        <v>179.5426366778408</v>
+        <v>179.5426366778407</v>
       </c>
       <c r="X40" t="n">
-        <v>118.729293730287</v>
+        <v>118.7292937302869</v>
       </c>
       <c r="Y40" t="n">
-        <v>111.6042916933446</v>
+        <v>111.6042916933445</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>344.8740479202422</v>
       </c>
       <c r="C41" t="n">
-        <v>327.4130980277693</v>
+        <v>327.4130980277692</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>369.0162519984731</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>96.20102299047304</v>
+        <v>96.20102299047301</v>
       </c>
       <c r="T41" t="n">
         <v>170.8363134462593</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>34.55700028513417</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>289.8924647268965</v>
       </c>
       <c r="W41" t="n">
-        <v>311.3811749741747</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>331.8713069352307</v>
       </c>
       <c r="Y41" t="n">
-        <v>337.3042308724401</v>
+        <v>348.3781449128152</v>
       </c>
     </row>
     <row r="42">
@@ -3822,7 +3822,7 @@
         <v>134.8487052450774</v>
       </c>
       <c r="D42" t="n">
-        <v>109.5852718214005</v>
+        <v>109.5852718214004</v>
       </c>
       <c r="E42" t="n">
         <v>119.7852867121626</v>
@@ -3831,10 +3831,10 @@
         <v>107.2094186501456</v>
       </c>
       <c r="G42" t="n">
-        <v>97.72369111761711</v>
+        <v>97.72369111761709</v>
       </c>
       <c r="H42" t="n">
-        <v>57.37744378366963</v>
+        <v>57.37744378366959</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>101.1315492883437</v>
+        <v>101.1315492883436</v>
       </c>
       <c r="T42" t="n">
-        <v>155.2107696627042</v>
+        <v>155.2107696627041</v>
       </c>
       <c r="U42" t="n">
-        <v>187.9657967388972</v>
+        <v>187.9657967388975</v>
       </c>
       <c r="V42" t="n">
-        <v>194.940793406187</v>
+        <v>194.9407934061869</v>
       </c>
       <c r="W42" t="n">
         <v>213.8351894176813</v>
       </c>
       <c r="X42" t="n">
-        <v>167.9131914602392</v>
+        <v>167.9131914602391</v>
       </c>
       <c r="Y42" t="n">
-        <v>167.8229020340661</v>
+        <v>167.822902034066</v>
       </c>
     </row>
     <row r="43">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>141.972186438699</v>
       </c>
       <c r="C43" t="n">
-        <v>129.3870273553895</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>110.755679274974</v>
       </c>
       <c r="E43" t="n">
-        <v>36.70224764956348</v>
+        <v>108.5741689033308</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>107.5612542796929</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>128.6556336562427</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>111.2483804380177</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>73.21680954494519</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>73.08741591480674</v>
+        <v>73.08741591480671</v>
       </c>
       <c r="S43" t="n">
         <v>160.4419578813681</v>
@@ -3955,13 +3955,13 @@
         <v>248.3787509609447</v>
       </c>
       <c r="V43" t="n">
-        <v>214.2778495805897</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>248.6632045933527</v>
+        <v>34.8960782887921</v>
       </c>
       <c r="X43" t="n">
-        <v>187.8498616457989</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>180.7248596088565</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>344.8740479202422</v>
+        <v>197.7632452743149</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>327.4130980277691</v>
       </c>
       <c r="D44" t="n">
-        <v>316.8232478774446</v>
+        <v>316.8232478774445</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.9265191448376</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>96.20102299047298</v>
+        <v>96.20102299047292</v>
       </c>
       <c r="T44" t="n">
         <v>170.8363134462592</v>
       </c>
       <c r="U44" t="n">
-        <v>213.2226999664324</v>
+        <v>213.2226999664323</v>
       </c>
       <c r="V44" t="n">
-        <v>185.761402986316</v>
+        <v>289.8924647268965</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>331.8713069352306</v>
       </c>
       <c r="Y44" t="n">
-        <v>348.3781449128152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>128.673389906629</v>
+        <v>128.6733899066289</v>
       </c>
       <c r="C45" t="n">
-        <v>134.8487052450774</v>
+        <v>134.8487052450773</v>
       </c>
       <c r="D45" t="n">
-        <v>109.5852718214004</v>
+        <v>109.5852718214003</v>
       </c>
       <c r="E45" t="n">
-        <v>119.7852867121626</v>
+        <v>119.7852867121625</v>
       </c>
       <c r="F45" t="n">
         <v>107.2094186501455</v>
       </c>
       <c r="G45" t="n">
-        <v>97.72369111761705</v>
+        <v>97.72369111761701</v>
       </c>
       <c r="H45" t="n">
-        <v>57.37744378366957</v>
+        <v>57.37744378366951</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4107,10 +4107,10 @@
         <v>101.1315492883436</v>
       </c>
       <c r="T45" t="n">
-        <v>155.210769662704</v>
+        <v>155.2107696627041</v>
       </c>
       <c r="U45" t="n">
-        <v>187.9657967388981</v>
+        <v>187.9657967388972</v>
       </c>
       <c r="V45" t="n">
         <v>194.9407934061869</v>
@@ -4122,7 +4122,7 @@
         <v>167.9131914602391</v>
       </c>
       <c r="Y45" t="n">
-        <v>167.822902034066</v>
+        <v>167.8229020340673</v>
       </c>
     </row>
     <row r="46">
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>141.9721864386989</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>24.11708856625464</v>
+        <v>129.3870273553894</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>110.7556792749739</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>108.5741689033308</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>107.5612542796928</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>128.6556336562427</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>73.08741591480668</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>160.441957881368</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>183.781164587593</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>248.3787509609446</v>
@@ -4198,7 +4198,7 @@
         <v>248.6632045933526</v>
       </c>
       <c r="X46" t="n">
-        <v>187.8498616457988</v>
+        <v>186.3159115648913</v>
       </c>
       <c r="Y46" t="n">
         <v>180.7248596088564</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1048.462029256828</v>
+        <v>881.4058068387985</v>
       </c>
       <c r="C11" t="n">
-        <v>1048.462029256828</v>
+        <v>582.2620453686009</v>
       </c>
       <c r="D11" t="n">
-        <v>1048.462029256828</v>
+        <v>293.8151022320644</v>
       </c>
       <c r="E11" t="n">
-        <v>732.4925321287978</v>
+        <v>293.8151022320644</v>
       </c>
       <c r="F11" t="n">
-        <v>401.1150362219501</v>
+        <v>293.8151022320644</v>
       </c>
       <c r="G11" t="n">
-        <v>54.75879417896935</v>
+        <v>293.8151022320644</v>
       </c>
       <c r="H11" t="n">
-        <v>54.75879417896935</v>
+        <v>54.75879417896932</v>
       </c>
       <c r="I11" t="n">
-        <v>40.07469386198353</v>
+        <v>40.07469386198349</v>
       </c>
       <c r="J11" t="n">
         <v>137.2386848226848</v>
       </c>
       <c r="K11" t="n">
-        <v>333.600838352449</v>
+        <v>333.6008383524489</v>
       </c>
       <c r="L11" t="n">
-        <v>614.1072151934231</v>
+        <v>614.1072151934229</v>
       </c>
       <c r="M11" t="n">
-        <v>957.8940446656454</v>
+        <v>957.8940446656452</v>
       </c>
       <c r="N11" t="n">
-        <v>1311.857512835627</v>
+        <v>1311.857512835625</v>
       </c>
       <c r="O11" t="n">
-        <v>1632.759917358846</v>
+        <v>1632.759917358844</v>
       </c>
       <c r="P11" t="n">
-        <v>1872.141694420935</v>
+        <v>1872.141694420934</v>
       </c>
       <c r="Q11" t="n">
-        <v>2003.734693099176</v>
+        <v>2003.734693099174</v>
       </c>
       <c r="R11" t="n">
-        <v>2003.734693099176</v>
+        <v>2003.734693099174</v>
       </c>
       <c r="S11" t="n">
-        <v>1938.138482171702</v>
+        <v>2003.734693099174</v>
       </c>
       <c r="T11" t="n">
-        <v>1797.153088965656</v>
+        <v>1862.749299893128</v>
       </c>
       <c r="U11" t="n">
-        <v>1613.353163921051</v>
+        <v>1678.949374848523</v>
       </c>
       <c r="V11" t="n">
-        <v>1352.109032047694</v>
+        <v>1468.002709429564</v>
       </c>
       <c r="W11" t="n">
-        <v>1352.109032047694</v>
+        <v>1185.052809629664</v>
       </c>
       <c r="X11" t="n">
-        <v>1048.462029256828</v>
+        <v>881.4058068387985</v>
       </c>
       <c r="Y11" t="n">
-        <v>1048.462029256828</v>
+        <v>881.4058068387985</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.4516343980463</v>
+        <v>646.2703898682587</v>
       </c>
       <c r="C12" t="n">
-        <v>448.6583394570741</v>
+        <v>541.6361160573457</v>
       </c>
       <c r="D12" t="n">
-        <v>299.7239297958228</v>
+        <v>392.7017063960944</v>
       </c>
       <c r="E12" t="n">
-        <v>210.3052302605813</v>
+        <v>303.2830068608529</v>
       </c>
       <c r="F12" t="n">
-        <v>133.5894277576802</v>
+        <v>226.5672043579519</v>
       </c>
       <c r="G12" t="n">
-        <v>66.45516821692908</v>
+        <v>89.61418934698685</v>
       </c>
       <c r="H12" t="n">
-        <v>40.07469386198353</v>
+        <v>63.23371499204133</v>
       </c>
       <c r="I12" t="n">
-        <v>40.07469386198353</v>
+        <v>40.07469386198349</v>
       </c>
       <c r="J12" t="n">
-        <v>79.12705428120886</v>
+        <v>79.12705428120879</v>
       </c>
       <c r="K12" t="n">
-        <v>224.0285831310403</v>
+        <v>224.0285831310402</v>
       </c>
       <c r="L12" t="n">
-        <v>627.3311436970662</v>
+        <v>465.1891117841139</v>
       </c>
       <c r="M12" t="n">
-        <v>1123.255480239112</v>
+        <v>765.9689420872378</v>
       </c>
       <c r="N12" t="n">
-        <v>1446.404702567789</v>
+        <v>1229.400815891383</v>
       </c>
       <c r="O12" t="n">
-        <v>1719.803313474828</v>
+        <v>1502.799426798422</v>
       </c>
       <c r="P12" t="n">
-        <v>1919.896735731755</v>
+        <v>1702.892849055349</v>
       </c>
       <c r="Q12" t="n">
-        <v>2003.734693099176</v>
+        <v>1994.70732128126</v>
       </c>
       <c r="R12" t="n">
-        <v>2003.734693099176</v>
+        <v>2003.734693099174</v>
       </c>
       <c r="S12" t="n">
-        <v>1933.158152577893</v>
+        <v>1933.158152577892</v>
       </c>
       <c r="T12" t="n">
-        <v>1807.956136930994</v>
+        <v>1738.137381460778</v>
       </c>
       <c r="U12" t="n">
-        <v>1579.849479878331</v>
+        <v>1579.84947987833</v>
       </c>
       <c r="V12" t="n">
-        <v>1344.697371646589</v>
+        <v>1414.516127116801</v>
       </c>
       <c r="W12" t="n">
-        <v>1090.460014918387</v>
+        <v>1160.278770388599</v>
       </c>
       <c r="X12" t="n">
-        <v>882.6085147128542</v>
+        <v>952.4272701830666</v>
       </c>
       <c r="Y12" t="n">
-        <v>674.8482159479004</v>
+        <v>814.4857268883268</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>596.2095769394359</v>
+        <v>596.2095769394361</v>
       </c>
       <c r="C13" t="n">
-        <v>497.092149481743</v>
+        <v>497.0921494817433</v>
       </c>
       <c r="D13" t="n">
-        <v>416.7942655396213</v>
+        <v>416.7942655396216</v>
       </c>
       <c r="E13" t="n">
-        <v>338.6999274274422</v>
+        <v>338.6999274274424</v>
       </c>
       <c r="F13" t="n">
-        <v>261.6287353997458</v>
+        <v>261.6287353997461</v>
       </c>
       <c r="G13" t="n">
-        <v>163.2500894563422</v>
+        <v>163.2500894563429</v>
       </c>
       <c r="H13" t="n">
-        <v>82.45452757175291</v>
+        <v>82.45452757175283</v>
       </c>
       <c r="I13" t="n">
-        <v>40.07469386198353</v>
+        <v>40.07469386198349</v>
       </c>
       <c r="J13" t="n">
-        <v>119.3567760475602</v>
+        <v>119.3567760475601</v>
       </c>
       <c r="K13" t="n">
         <v>335.4573276979075</v>
@@ -5221,13 +5221,13 @@
         <v>1967.755318011706</v>
       </c>
       <c r="R13" t="n">
-        <v>1925.50618493844</v>
+        <v>1925.506184938441</v>
       </c>
       <c r="S13" t="n">
         <v>1795.02014078784</v>
       </c>
       <c r="T13" t="n">
-        <v>1640.959140368325</v>
+        <v>1640.959140368326</v>
       </c>
       <c r="U13" t="n">
         <v>1421.648052703001</v>
@@ -5239,10 +5239,10 @@
         <v>1017.183905400581</v>
       </c>
       <c r="X13" t="n">
-        <v>859.0131099727779</v>
+        <v>859.013109972778</v>
       </c>
       <c r="Y13" t="n">
-        <v>708.0392862994617</v>
+        <v>708.0392862994619</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>981.3384935944387</v>
+        <v>1244.587784539612</v>
       </c>
       <c r="C14" t="n">
-        <v>981.3384935944387</v>
+        <v>1244.587784539612</v>
       </c>
       <c r="D14" t="n">
-        <v>981.3384935944387</v>
+        <v>956.1408414030755</v>
       </c>
       <c r="E14" t="n">
-        <v>981.3384935944387</v>
+        <v>640.1713442750452</v>
       </c>
       <c r="F14" t="n">
         <v>640.1713442750452</v>
@@ -5270,58 +5270,58 @@
         <v>293.8151022320644</v>
       </c>
       <c r="H14" t="n">
-        <v>54.75879417896937</v>
+        <v>54.75879417896933</v>
       </c>
       <c r="I14" t="n">
-        <v>40.07469386198351</v>
+        <v>40.07469386198349</v>
       </c>
       <c r="J14" t="n">
-        <v>137.2386848226852</v>
+        <v>137.2386848226849</v>
       </c>
       <c r="K14" t="n">
-        <v>333.6008383524495</v>
+        <v>333.6008383524488</v>
       </c>
       <c r="L14" t="n">
-        <v>614.1072151934239</v>
+        <v>614.1072151934227</v>
       </c>
       <c r="M14" t="n">
-        <v>957.8940446656464</v>
+        <v>957.894044665645</v>
       </c>
       <c r="N14" t="n">
-        <v>1311.857512835627</v>
+        <v>1311.857512835625</v>
       </c>
       <c r="O14" t="n">
-        <v>1632.759917358845</v>
+        <v>1632.759917358844</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.141694420935</v>
+        <v>1872.141694420934</v>
       </c>
       <c r="Q14" t="n">
-        <v>2003.734693099176</v>
+        <v>2003.734693099174</v>
       </c>
       <c r="R14" t="n">
-        <v>2003.734693099176</v>
+        <v>2003.734693099174</v>
       </c>
       <c r="S14" t="n">
-        <v>2003.734693099176</v>
+        <v>1938.1384821717</v>
       </c>
       <c r="T14" t="n">
-        <v>2003.734693099176</v>
+        <v>1797.153088965654</v>
       </c>
       <c r="U14" t="n">
-        <v>1819.934768054571</v>
+        <v>1613.353163921049</v>
       </c>
       <c r="V14" t="n">
-        <v>1819.934768054571</v>
+        <v>1352.109032047692</v>
       </c>
       <c r="W14" t="n">
-        <v>1605.306072890902</v>
+        <v>1244.587784539612</v>
       </c>
       <c r="X14" t="n">
-        <v>1301.659070100036</v>
+        <v>1244.587784539612</v>
       </c>
       <c r="Y14" t="n">
-        <v>981.3384935944387</v>
+        <v>1244.587784539612</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>902.3863906190569</v>
+        <v>692.9301242084149</v>
       </c>
       <c r="C15" t="n">
-        <v>727.9333613379299</v>
+        <v>588.2958503975019</v>
       </c>
       <c r="D15" t="n">
-        <v>578.9989516766786</v>
+        <v>509.1801962064646</v>
       </c>
       <c r="E15" t="n">
-        <v>419.7614966712232</v>
+        <v>349.9427412010091</v>
       </c>
       <c r="F15" t="n">
         <v>273.2269386981081</v>
       </c>
       <c r="G15" t="n">
-        <v>136.2739236871431</v>
+        <v>136.273923687143</v>
       </c>
       <c r="H15" t="n">
-        <v>40.07469386198351</v>
+        <v>40.07469386198349</v>
       </c>
       <c r="I15" t="n">
-        <v>40.07469386198351</v>
+        <v>40.07469386198349</v>
       </c>
       <c r="J15" t="n">
-        <v>79.12705428120881</v>
+        <v>79.12705428120876</v>
       </c>
       <c r="K15" t="n">
-        <v>224.0285831310402</v>
+        <v>408.5400070695451</v>
       </c>
       <c r="L15" t="n">
-        <v>719.9529196730862</v>
+        <v>649.7005357226188</v>
       </c>
       <c r="M15" t="n">
-        <v>1123.255480239113</v>
+        <v>950.4803660257426</v>
       </c>
       <c r="N15" t="n">
-        <v>1446.40470256779</v>
+        <v>1446.404702567788</v>
       </c>
       <c r="O15" t="n">
-        <v>1719.803313474828</v>
+        <v>1719.803313474827</v>
       </c>
       <c r="P15" t="n">
-        <v>1919.896735731755</v>
+        <v>1919.896735731754</v>
       </c>
       <c r="Q15" t="n">
-        <v>2003.734693099176</v>
+        <v>2003.734693099174</v>
       </c>
       <c r="R15" t="n">
-        <v>2003.734693099176</v>
+        <v>2003.734693099174</v>
       </c>
       <c r="S15" t="n">
-        <v>1933.158152577893</v>
+        <v>1863.339397107677</v>
       </c>
       <c r="T15" t="n">
-        <v>1807.956136930993</v>
+        <v>1738.137381460778</v>
       </c>
       <c r="U15" t="n">
-        <v>1649.668235348545</v>
+        <v>1579.849479878329</v>
       </c>
       <c r="V15" t="n">
-        <v>1484.334882587016</v>
+        <v>1391.357105986743</v>
       </c>
       <c r="W15" t="n">
-        <v>1299.916281329029</v>
+        <v>1137.119749258542</v>
       </c>
       <c r="X15" t="n">
-        <v>1161.88353659371</v>
+        <v>929.2682490530087</v>
       </c>
       <c r="Y15" t="n">
-        <v>1023.94199329897</v>
+        <v>791.3267057582689</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>596.2095769394364</v>
+        <v>596.2095769394361</v>
       </c>
       <c r="C16" t="n">
-        <v>497.0921494817434</v>
+        <v>497.0921494817433</v>
       </c>
       <c r="D16" t="n">
         <v>416.7942655396216</v>
       </c>
       <c r="E16" t="n">
-        <v>338.6999274274425</v>
+        <v>338.6999274274424</v>
       </c>
       <c r="F16" t="n">
         <v>261.6287353997461</v>
       </c>
       <c r="G16" t="n">
-        <v>163.2500894563428</v>
+        <v>163.2500894563429</v>
       </c>
       <c r="H16" t="n">
-        <v>82.45452757175289</v>
+        <v>82.45452757175283</v>
       </c>
       <c r="I16" t="n">
-        <v>40.07469386198351</v>
+        <v>40.07469386198349</v>
       </c>
       <c r="J16" t="n">
         <v>119.3567760475601</v>
@@ -5440,13 +5440,13 @@
         <v>335.4573276979075</v>
       </c>
       <c r="L16" t="n">
-        <v>648.3814055760683</v>
+        <v>648.3814055760686</v>
       </c>
       <c r="M16" t="n">
-        <v>984.985287862519</v>
+        <v>984.9852878625193</v>
       </c>
       <c r="N16" t="n">
-        <v>1320.647195883556</v>
+        <v>1320.647195883557</v>
       </c>
       <c r="O16" t="n">
         <v>1619.89277147848</v>
@@ -5473,13 +5473,13 @@
         <v>1236.782319967328</v>
       </c>
       <c r="W16" t="n">
-        <v>1017.183905400582</v>
+        <v>1017.183905400581</v>
       </c>
       <c r="X16" t="n">
-        <v>859.0131099727782</v>
+        <v>859.013109972778</v>
       </c>
       <c r="Y16" t="n">
-        <v>708.0392862994621</v>
+        <v>708.0392862994619</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>943.634895596748</v>
+        <v>1077.163365904536</v>
       </c>
       <c r="C17" t="n">
-        <v>644.4911341265503</v>
+        <v>1077.163365904536</v>
       </c>
       <c r="D17" t="n">
-        <v>356.0441909900138</v>
+        <v>1077.163365904536</v>
       </c>
       <c r="E17" t="n">
-        <v>40.07469386198351</v>
+        <v>761.1938687765062</v>
       </c>
       <c r="F17" t="n">
-        <v>40.07469386198351</v>
+        <v>420.0267194571126</v>
       </c>
       <c r="G17" t="n">
-        <v>40.07469386198351</v>
+        <v>73.67047741413188</v>
       </c>
       <c r="H17" t="n">
-        <v>40.07469386198351</v>
+        <v>40.0746938619835</v>
       </c>
       <c r="I17" t="n">
-        <v>40.07469386198351</v>
+        <v>40.0746938619835</v>
       </c>
       <c r="J17" t="n">
         <v>137.238684822685</v>
@@ -5519,46 +5519,46 @@
         <v>333.6008383524489</v>
       </c>
       <c r="L17" t="n">
-        <v>614.107215193423</v>
+        <v>614.1072151934231</v>
       </c>
       <c r="M17" t="n">
-        <v>957.8940446656455</v>
+        <v>957.8940446656454</v>
       </c>
       <c r="N17" t="n">
         <v>1311.857512835626</v>
       </c>
       <c r="O17" t="n">
-        <v>1632.759917358845</v>
+        <v>1632.759917358844</v>
       </c>
       <c r="P17" t="n">
-        <v>1872.141694420935</v>
+        <v>1872.141694420934</v>
       </c>
       <c r="Q17" t="n">
         <v>2003.734693099175</v>
       </c>
       <c r="R17" t="n">
-        <v>2003.734693099176</v>
+        <v>2003.734693099175</v>
       </c>
       <c r="S17" t="n">
-        <v>1938.138482171702</v>
+        <v>1938.138482171701</v>
       </c>
       <c r="T17" t="n">
-        <v>1797.153088965655</v>
+        <v>1938.138482171701</v>
       </c>
       <c r="U17" t="n">
-        <v>1797.153088965655</v>
+        <v>1938.138482171701</v>
       </c>
       <c r="V17" t="n">
-        <v>1567.602474893212</v>
+        <v>1676.894350298344</v>
       </c>
       <c r="W17" t="n">
-        <v>1567.602474893212</v>
+        <v>1393.944450498444</v>
       </c>
       <c r="X17" t="n">
-        <v>1263.955472102346</v>
+        <v>1393.944450498444</v>
       </c>
       <c r="Y17" t="n">
-        <v>943.634895596748</v>
+        <v>1393.944450498444</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>646.2703898682598</v>
+        <v>646.2703898682593</v>
       </c>
       <c r="C18" t="n">
-        <v>541.6361160573468</v>
+        <v>541.6361160573463</v>
       </c>
       <c r="D18" t="n">
-        <v>462.5204618663096</v>
+        <v>392.701706396095</v>
       </c>
       <c r="E18" t="n">
-        <v>373.1017623310681</v>
+        <v>233.4642513906395</v>
       </c>
       <c r="F18" t="n">
-        <v>226.567204357953</v>
+        <v>156.7484488877385</v>
       </c>
       <c r="G18" t="n">
-        <v>136.2739236871431</v>
+        <v>89.61418934698742</v>
       </c>
       <c r="H18" t="n">
-        <v>40.07469386198351</v>
+        <v>40.0746938619835</v>
       </c>
       <c r="I18" t="n">
-        <v>40.07469386198351</v>
+        <v>40.0746938619835</v>
       </c>
       <c r="J18" t="n">
         <v>79.12705428120881</v>
       </c>
       <c r="K18" t="n">
-        <v>485.849167773493</v>
+        <v>224.0285831310402</v>
       </c>
       <c r="L18" t="n">
-        <v>727.0096964265668</v>
+        <v>465.189111784114</v>
       </c>
       <c r="M18" t="n">
-        <v>1027.789526729691</v>
+        <v>961.1134483261599</v>
       </c>
       <c r="N18" t="n">
-        <v>1446.40470256779</v>
+        <v>1284.262670654837</v>
       </c>
       <c r="O18" t="n">
-        <v>1719.803313474828</v>
+        <v>1557.661281561875</v>
       </c>
       <c r="P18" t="n">
-        <v>1919.896735731755</v>
+        <v>1919.896735731754</v>
       </c>
       <c r="Q18" t="n">
-        <v>2003.734693099176</v>
+        <v>2003.734693099175</v>
       </c>
       <c r="R18" t="n">
-        <v>2003.734693099176</v>
+        <v>2003.734693099175</v>
       </c>
       <c r="S18" t="n">
-        <v>1933.158152577893</v>
+        <v>1863.339397107678</v>
       </c>
       <c r="T18" t="n">
-        <v>1807.956136930993</v>
+        <v>1668.318625990564</v>
       </c>
       <c r="U18" t="n">
-        <v>1649.668235348545</v>
+        <v>1510.030724408116</v>
       </c>
       <c r="V18" t="n">
-        <v>1414.516127116802</v>
+        <v>1344.697371646587</v>
       </c>
       <c r="W18" t="n">
-        <v>1160.278770388601</v>
+        <v>1090.460014918386</v>
       </c>
       <c r="X18" t="n">
-        <v>952.4272701830678</v>
+        <v>952.4272701830671</v>
       </c>
       <c r="Y18" t="n">
-        <v>744.6669714181139</v>
+        <v>744.6669714181132</v>
       </c>
     </row>
     <row r="19">
@@ -5650,7 +5650,7 @@
         <v>596.2095769394363</v>
       </c>
       <c r="C19" t="n">
-        <v>497.0921494817434</v>
+        <v>497.0921494817433</v>
       </c>
       <c r="D19" t="n">
         <v>416.7942655396216</v>
@@ -5665,10 +5665,10 @@
         <v>163.2500894563429</v>
       </c>
       <c r="H19" t="n">
-        <v>82.45452757175286</v>
+        <v>82.45452757175285</v>
       </c>
       <c r="I19" t="n">
-        <v>40.07469386198351</v>
+        <v>40.0746938619835</v>
       </c>
       <c r="J19" t="n">
         <v>119.3567760475602</v>
@@ -5680,7 +5680,7 @@
         <v>648.3814055760687</v>
       </c>
       <c r="M19" t="n">
-        <v>984.9852878625195</v>
+        <v>984.9852878625194</v>
       </c>
       <c r="N19" t="n">
         <v>1320.647195883557</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>911.9413777958353</v>
+        <v>1229.903684222626</v>
       </c>
       <c r="C20" t="n">
-        <v>702.4004330329944</v>
+        <v>1229.903684222626</v>
       </c>
       <c r="D20" t="n">
-        <v>702.4004330329944</v>
+        <v>941.4567410860896</v>
       </c>
       <c r="E20" t="n">
-        <v>386.4309359049643</v>
+        <v>625.4872439580593</v>
       </c>
       <c r="F20" t="n">
-        <v>386.4309359049643</v>
+        <v>625.4872439580593</v>
       </c>
       <c r="G20" t="n">
-        <v>40.07469386198351</v>
+        <v>279.1310019150786</v>
       </c>
       <c r="H20" t="n">
-        <v>40.07469386198351</v>
+        <v>40.0746938619835</v>
       </c>
       <c r="I20" t="n">
-        <v>40.07469386198351</v>
+        <v>40.0746938619835</v>
       </c>
       <c r="J20" t="n">
-        <v>137.2386848226852</v>
+        <v>137.238684822685</v>
       </c>
       <c r="K20" t="n">
-        <v>333.6008383524492</v>
+        <v>333.6008383524489</v>
       </c>
       <c r="L20" t="n">
-        <v>614.1072151934231</v>
+        <v>614.107215193423</v>
       </c>
       <c r="M20" t="n">
-        <v>957.8940446656457</v>
+        <v>957.8940446656453</v>
       </c>
       <c r="N20" t="n">
         <v>1311.857512835626</v>
       </c>
       <c r="O20" t="n">
-        <v>1632.759917358845</v>
+        <v>1632.759917358844</v>
       </c>
       <c r="P20" t="n">
-        <v>1872.141694420935</v>
+        <v>1872.141694420934</v>
       </c>
       <c r="Q20" t="n">
-        <v>2003.734693099176</v>
+        <v>2003.734693099175</v>
       </c>
       <c r="R20" t="n">
-        <v>2003.734693099176</v>
+        <v>2003.734693099175</v>
       </c>
       <c r="S20" t="n">
-        <v>1938.138482171702</v>
+        <v>2003.734693099175</v>
       </c>
       <c r="T20" t="n">
-        <v>1797.153088965655</v>
+        <v>2003.734693099175</v>
       </c>
       <c r="U20" t="n">
-        <v>1797.153088965655</v>
+        <v>2003.734693099175</v>
       </c>
       <c r="V20" t="n">
-        <v>1535.908957092299</v>
+        <v>1742.490561225819</v>
       </c>
       <c r="W20" t="n">
-        <v>1535.908957092299</v>
+        <v>1546.684768816534</v>
       </c>
       <c r="X20" t="n">
-        <v>1232.261954301433</v>
+        <v>1546.684768816534</v>
       </c>
       <c r="Y20" t="n">
-        <v>911.9413777958353</v>
+        <v>1546.684768816534</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>623.1113687382009</v>
+        <v>716.0891453384733</v>
       </c>
       <c r="C21" t="n">
-        <v>448.6583394570739</v>
+        <v>611.4548715275603</v>
       </c>
       <c r="D21" t="n">
-        <v>299.7239297958226</v>
+        <v>462.520461866309</v>
       </c>
       <c r="E21" t="n">
-        <v>210.3052302605811</v>
+        <v>373.1017623310675</v>
       </c>
       <c r="F21" t="n">
-        <v>133.5894277576801</v>
+        <v>226.5672043579525</v>
       </c>
       <c r="G21" t="n">
-        <v>66.45516821692904</v>
+        <v>136.2739236871431</v>
       </c>
       <c r="H21" t="n">
-        <v>40.07469386198351</v>
+        <v>40.0746938619835</v>
       </c>
       <c r="I21" t="n">
-        <v>40.07469386198351</v>
+        <v>40.0746938619835</v>
       </c>
       <c r="J21" t="n">
-        <v>79.12705428120881</v>
+        <v>203.9571792682136</v>
       </c>
       <c r="K21" t="n">
-        <v>224.0285831310402</v>
+        <v>348.858708118045</v>
       </c>
       <c r="L21" t="n">
-        <v>465.189111784114</v>
+        <v>590.0192367711188</v>
       </c>
       <c r="M21" t="n">
-        <v>765.9689420872378</v>
+        <v>1085.943573313165</v>
       </c>
       <c r="N21" t="n">
-        <v>1089.118164415915</v>
+        <v>1409.092795641841</v>
       </c>
       <c r="O21" t="n">
-        <v>1362.516775322953</v>
+        <v>1710.775941656913</v>
       </c>
       <c r="P21" t="n">
-        <v>1702.89284905535</v>
+        <v>1910.86936391384</v>
       </c>
       <c r="Q21" t="n">
-        <v>1994.707321281262</v>
+        <v>1994.707321281261</v>
       </c>
       <c r="R21" t="n">
-        <v>2003.734693099176</v>
+        <v>2003.734693099175</v>
       </c>
       <c r="S21" t="n">
-        <v>1933.158152577893</v>
+        <v>1863.339397107678</v>
       </c>
       <c r="T21" t="n">
-        <v>1784.797115800934</v>
+        <v>1738.137381460778</v>
       </c>
       <c r="U21" t="n">
-        <v>1626.509214218486</v>
+        <v>1579.84947987833</v>
       </c>
       <c r="V21" t="n">
-        <v>1391.357105986743</v>
+        <v>1344.697371646587</v>
       </c>
       <c r="W21" t="n">
-        <v>1137.119749258542</v>
+        <v>1090.460014918386</v>
       </c>
       <c r="X21" t="n">
-        <v>929.2682490530087</v>
+        <v>952.4272701830671</v>
       </c>
       <c r="Y21" t="n">
-        <v>791.3267057582689</v>
+        <v>814.4857268883272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>596.2095769394363</v>
+        <v>596.2095769394361</v>
       </c>
       <c r="C22" t="n">
-        <v>497.0921494817434</v>
+        <v>497.0921494817433</v>
       </c>
       <c r="D22" t="n">
         <v>416.7942655396216</v>
       </c>
       <c r="E22" t="n">
-        <v>338.6999274274425</v>
+        <v>338.6999274274424</v>
       </c>
       <c r="F22" t="n">
         <v>261.6287353997461</v>
@@ -5902,16 +5902,16 @@
         <v>163.2500894563429</v>
       </c>
       <c r="H22" t="n">
-        <v>82.45452757175286</v>
+        <v>82.45452757175285</v>
       </c>
       <c r="I22" t="n">
-        <v>40.07469386198351</v>
+        <v>40.0746938619835</v>
       </c>
       <c r="J22" t="n">
-        <v>119.3567760475601</v>
+        <v>119.3567760475602</v>
       </c>
       <c r="K22" t="n">
-        <v>335.4573276979075</v>
+        <v>335.4573276979076</v>
       </c>
       <c r="L22" t="n">
         <v>648.3814055760686</v>
@@ -5932,7 +5932,7 @@
         <v>1967.755318011706</v>
       </c>
       <c r="R22" t="n">
-        <v>1925.50618493844</v>
+        <v>1925.506184938441</v>
       </c>
       <c r="S22" t="n">
         <v>1795.02014078784</v>
@@ -5950,10 +5950,10 @@
         <v>1017.183905400581</v>
       </c>
       <c r="X22" t="n">
-        <v>859.0131099727781</v>
+        <v>859.013109972778</v>
       </c>
       <c r="Y22" t="n">
-        <v>708.039286299462</v>
+        <v>708.0392862994619</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1920.745393838831</v>
+        <v>1920.74539383883</v>
       </c>
       <c r="C23" t="n">
-        <v>1621.601632368634</v>
+        <v>1621.601632368633</v>
       </c>
       <c r="D23" t="n">
         <v>1333.154689232097</v>
@@ -5978,40 +5978,40 @@
         <v>676.0180427846733</v>
       </c>
       <c r="G23" t="n">
-        <v>329.6618007416926</v>
+        <v>329.6618007416925</v>
       </c>
       <c r="H23" t="n">
-        <v>90.60549268859752</v>
+        <v>90.60549268859749</v>
       </c>
       <c r="I23" t="n">
-        <v>75.9213923716117</v>
+        <v>75.92139237161169</v>
       </c>
       <c r="J23" t="n">
-        <v>173.0853833323132</v>
+        <v>173.0853833323131</v>
       </c>
       <c r="K23" t="n">
-        <v>690.3514953075302</v>
+        <v>369.4475368620771</v>
       </c>
       <c r="L23" t="n">
-        <v>970.8578721485044</v>
+        <v>776.6807230463735</v>
       </c>
       <c r="M23" t="n">
-        <v>1759.663099778631</v>
+        <v>1565.4859506765</v>
       </c>
       <c r="N23" t="n">
-        <v>2546.600023116476</v>
+        <v>2352.422874014345</v>
       </c>
       <c r="O23" t="n">
-        <v>3244.494607089812</v>
+        <v>3050.317457987681</v>
       </c>
       <c r="P23" t="n">
-        <v>3483.876384151902</v>
+        <v>3608.279956139539</v>
       </c>
       <c r="Q23" t="n">
-        <v>3739.872954817781</v>
+        <v>3739.87295481778</v>
       </c>
       <c r="R23" t="n">
-        <v>3796.069618580585</v>
+        <v>3796.069618580584</v>
       </c>
       <c r="S23" t="n">
         <v>3730.47340765311</v>
@@ -6020,19 +6020,19 @@
         <v>3589.488014447064</v>
       </c>
       <c r="U23" t="n">
-        <v>3405.68808940246</v>
+        <v>3405.688089402458</v>
       </c>
       <c r="V23" t="n">
-        <v>3144.443957529103</v>
+        <v>3144.443957529102</v>
       </c>
       <c r="W23" t="n">
-        <v>2861.494057729203</v>
+        <v>2861.494057729202</v>
       </c>
       <c r="X23" t="n">
-        <v>2557.847054938337</v>
+        <v>2557.847054938336</v>
       </c>
       <c r="Y23" t="n">
-        <v>2237.526478432739</v>
+        <v>2237.526478432738</v>
       </c>
     </row>
     <row r="24">
@@ -6060,25 +6060,25 @@
         <v>201.210550943157</v>
       </c>
       <c r="H24" t="n">
-        <v>105.0113211179975</v>
+        <v>105.0113211179974</v>
       </c>
       <c r="I24" t="n">
-        <v>75.9213923716117</v>
+        <v>75.92139237161169</v>
       </c>
       <c r="J24" t="n">
         <v>114.973752790837</v>
       </c>
       <c r="K24" t="n">
-        <v>521.6958662831212</v>
+        <v>259.8752816406684</v>
       </c>
       <c r="L24" t="n">
-        <v>762.856394936195</v>
+        <v>501.0358102937422</v>
       </c>
       <c r="M24" t="n">
-        <v>1333.659434042817</v>
+        <v>1249.034179526661</v>
       </c>
       <c r="N24" t="n">
-        <v>1656.808656371494</v>
+        <v>2046.732352455456</v>
       </c>
       <c r="O24" t="n">
         <v>2320.130963362494</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>632.0562754490645</v>
+        <v>2424.523877508314</v>
       </c>
       <c r="C25" t="n">
-        <v>532.9388479913716</v>
+        <v>2325.406450050621</v>
       </c>
       <c r="D25" t="n">
-        <v>452.6409640492499</v>
+        <v>2245.108566108499</v>
       </c>
       <c r="E25" t="n">
-        <v>374.5466259370708</v>
+        <v>2167.01422799632</v>
       </c>
       <c r="F25" t="n">
-        <v>297.4754339093744</v>
+        <v>2089.943035968624</v>
       </c>
       <c r="G25" t="n">
-        <v>199.0967879659711</v>
+        <v>1991.564390025221</v>
       </c>
       <c r="H25" t="n">
-        <v>118.3012260813811</v>
+        <v>1910.768828140631</v>
       </c>
       <c r="I25" t="n">
-        <v>75.9213923716117</v>
+        <v>1868.388994430861</v>
       </c>
       <c r="J25" t="n">
-        <v>155.2034745571884</v>
+        <v>1947.671076616438</v>
       </c>
       <c r="K25" t="n">
-        <v>371.304026207536</v>
+        <v>2163.771628266785</v>
       </c>
       <c r="L25" t="n">
-        <v>684.2281040856971</v>
+        <v>2476.695706144946</v>
       </c>
       <c r="M25" t="n">
-        <v>1020.831986372148</v>
+        <v>2813.299588431397</v>
       </c>
       <c r="N25" t="n">
-        <v>1356.493894393185</v>
+        <v>3148.961496452434</v>
       </c>
       <c r="O25" t="n">
-        <v>1655.739469988108</v>
+        <v>3448.207072047358</v>
       </c>
       <c r="P25" t="n">
-        <v>1898.151295256863</v>
+        <v>3690.618897316112</v>
       </c>
       <c r="Q25" t="n">
-        <v>2003.602016521334</v>
+        <v>3796.069618580584</v>
       </c>
       <c r="R25" t="n">
-        <v>1961.352883448069</v>
+        <v>3753.820485507318</v>
       </c>
       <c r="S25" t="n">
-        <v>1830.866839297468</v>
+        <v>3623.334441356717</v>
       </c>
       <c r="T25" t="n">
-        <v>1676.805838877954</v>
+        <v>3469.273440937203</v>
       </c>
       <c r="U25" t="n">
-        <v>1457.494751212629</v>
+        <v>3249.962353271878</v>
       </c>
       <c r="V25" t="n">
-        <v>1272.629018476956</v>
+        <v>3065.096620536206</v>
       </c>
       <c r="W25" t="n">
-        <v>1053.03060391021</v>
+        <v>2845.498205969459</v>
       </c>
       <c r="X25" t="n">
-        <v>894.8598084824064</v>
+        <v>2687.327410541656</v>
       </c>
       <c r="Y25" t="n">
-        <v>743.8859848090902</v>
+        <v>2536.35358686834</v>
       </c>
     </row>
     <row r="26">
@@ -6212,52 +6212,52 @@
         <v>1017.185192104067</v>
       </c>
       <c r="F26" t="n">
-        <v>676.0180427846736</v>
+        <v>676.0180427846731</v>
       </c>
       <c r="G26" t="n">
-        <v>329.661800741693</v>
+        <v>329.6618007416923</v>
       </c>
       <c r="H26" t="n">
-        <v>90.60549268859796</v>
+        <v>90.60549268859742</v>
       </c>
       <c r="I26" t="n">
-        <v>75.9213923716117</v>
+        <v>75.92139237161169</v>
       </c>
       <c r="J26" t="n">
-        <v>340.4910323526662</v>
+        <v>340.4910323526661</v>
       </c>
       <c r="K26" t="n">
-        <v>857.7571443278832</v>
+        <v>857.7571443278831</v>
       </c>
       <c r="L26" t="n">
-        <v>1138.263521168857</v>
+        <v>1551.748123573803</v>
       </c>
       <c r="M26" t="n">
-        <v>1482.05035064108</v>
+        <v>1895.534953046026</v>
       </c>
       <c r="N26" t="n">
-        <v>2268.987273978924</v>
+        <v>2682.47187638387</v>
       </c>
       <c r="O26" t="n">
-        <v>2966.881857952261</v>
+        <v>3380.366460357207</v>
       </c>
       <c r="P26" t="n">
-        <v>3524.844356104119</v>
+        <v>3619.748237419297</v>
       </c>
       <c r="Q26" t="n">
-        <v>3739.872954817781</v>
+        <v>3751.341236097538</v>
       </c>
       <c r="R26" t="n">
         <v>3796.069618580585</v>
       </c>
       <c r="S26" t="n">
-        <v>3730.473407653111</v>
+        <v>3730.47340765311</v>
       </c>
       <c r="T26" t="n">
-        <v>3589.488014447065</v>
+        <v>3589.488014447064</v>
       </c>
       <c r="U26" t="n">
-        <v>3405.68808940246</v>
+        <v>3405.688089402459</v>
       </c>
       <c r="V26" t="n">
         <v>3144.443957529103</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>967.3230178750708</v>
+        <v>2159.330293468813</v>
       </c>
       <c r="C27" t="n">
-        <v>792.8699885939438</v>
+        <v>1984.877264187686</v>
       </c>
       <c r="D27" t="n">
-        <v>643.9355789326926</v>
+        <v>1835.942854526434</v>
       </c>
       <c r="E27" t="n">
-        <v>484.6981239272371</v>
+        <v>1676.705399520979</v>
       </c>
       <c r="F27" t="n">
-        <v>338.1635659541221</v>
+        <v>1530.170841547864</v>
       </c>
       <c r="G27" t="n">
-        <v>201.210550943157</v>
+        <v>1393.217826536899</v>
       </c>
       <c r="H27" t="n">
-        <v>105.0113211179975</v>
+        <v>1297.018596711739</v>
       </c>
       <c r="I27" t="n">
-        <v>75.9213923716117</v>
+        <v>1267.928667965353</v>
       </c>
       <c r="J27" t="n">
-        <v>114.973752790837</v>
+        <v>1306.981028384579</v>
       </c>
       <c r="K27" t="n">
-        <v>259.8752816406684</v>
+        <v>1451.88255723441</v>
       </c>
       <c r="L27" t="n">
-        <v>501.0358102937422</v>
+        <v>2060.175027737909</v>
       </c>
       <c r="M27" t="n">
-        <v>801.8156405968659</v>
+        <v>2360.954858041032</v>
       </c>
       <c r="N27" t="n">
-        <v>1599.513813525661</v>
+        <v>2684.104080369709</v>
       </c>
       <c r="O27" t="n">
-        <v>1872.912424432699</v>
+        <v>3196.860098002699</v>
       </c>
       <c r="P27" t="n">
-        <v>2303.220498943017</v>
+        <v>3712.231661213164</v>
       </c>
       <c r="Q27" t="n">
-        <v>2595.034971168928</v>
+        <v>3796.069618580585</v>
       </c>
       <c r="R27" t="n">
-        <v>2604.062342986842</v>
+        <v>3796.069618580585</v>
       </c>
       <c r="S27" t="n">
-        <v>2463.667046995346</v>
+        <v>3655.674322589088</v>
       </c>
       <c r="T27" t="n">
-        <v>2268.646275878232</v>
+        <v>3460.653551471974</v>
       </c>
       <c r="U27" t="n">
-        <v>2040.53961882557</v>
+        <v>3232.546894419312</v>
       </c>
       <c r="V27" t="n">
-        <v>1805.387510593827</v>
+        <v>2997.394786187569</v>
       </c>
       <c r="W27" t="n">
-        <v>1551.150153865625</v>
+        <v>2743.157429459367</v>
       </c>
       <c r="X27" t="n">
-        <v>1343.298653660093</v>
+        <v>2535.305929253835</v>
       </c>
       <c r="Y27" t="n">
-        <v>1135.538354895139</v>
+        <v>2327.545630488881</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>632.0562754490657</v>
+        <v>2424.523877508315</v>
       </c>
       <c r="C28" t="n">
-        <v>532.9388479913728</v>
+        <v>2325.406450050622</v>
       </c>
       <c r="D28" t="n">
-        <v>452.6409640492511</v>
+        <v>2245.108566108501</v>
       </c>
       <c r="E28" t="n">
-        <v>374.5466259370721</v>
+        <v>2167.014227996322</v>
       </c>
       <c r="F28" t="n">
-        <v>297.4754339093758</v>
+        <v>2089.943035968623</v>
       </c>
       <c r="G28" t="n">
-        <v>199.0967879659726</v>
+        <v>1991.56439002522</v>
       </c>
       <c r="H28" t="n">
-        <v>118.3012260813826</v>
+        <v>1910.76882814063</v>
       </c>
       <c r="I28" t="n">
-        <v>75.9213923716117</v>
+        <v>1868.388994430861</v>
       </c>
       <c r="J28" t="n">
-        <v>155.2034745571884</v>
+        <v>1947.671076616438</v>
       </c>
       <c r="K28" t="n">
-        <v>371.3040262075359</v>
+        <v>2163.771628266785</v>
       </c>
       <c r="L28" t="n">
-        <v>684.2281040856971</v>
+        <v>2476.695706144947</v>
       </c>
       <c r="M28" t="n">
-        <v>1020.831986372148</v>
+        <v>2813.299588431397</v>
       </c>
       <c r="N28" t="n">
-        <v>1356.493894393185</v>
+        <v>3148.961496452435</v>
       </c>
       <c r="O28" t="n">
-        <v>1655.739469988109</v>
+        <v>3448.207072047358</v>
       </c>
       <c r="P28" t="n">
-        <v>1898.151295256864</v>
+        <v>3690.618897316113</v>
       </c>
       <c r="Q28" t="n">
-        <v>2003.602016521335</v>
+        <v>3796.069618580585</v>
       </c>
       <c r="R28" t="n">
-        <v>1961.352883448069</v>
+        <v>3753.820485507319</v>
       </c>
       <c r="S28" t="n">
-        <v>1830.866839297469</v>
+        <v>3623.334441356718</v>
       </c>
       <c r="T28" t="n">
-        <v>1676.805838877954</v>
+        <v>3469.273440937204</v>
       </c>
       <c r="U28" t="n">
-        <v>1457.49475121263</v>
+        <v>3249.962353271879</v>
       </c>
       <c r="V28" t="n">
-        <v>1272.629018476957</v>
+        <v>3065.096620536207</v>
       </c>
       <c r="W28" t="n">
-        <v>1053.030603910211</v>
+        <v>2845.49820596946</v>
       </c>
       <c r="X28" t="n">
-        <v>894.8598084824073</v>
+        <v>2687.327410541657</v>
       </c>
       <c r="Y28" t="n">
-        <v>743.8859848090913</v>
+        <v>2536.353586868341</v>
       </c>
     </row>
     <row r="29">
@@ -6455,43 +6455,43 @@
         <v>329.6618007416923</v>
       </c>
       <c r="H29" t="n">
-        <v>90.60549268859752</v>
+        <v>90.60549268859751</v>
       </c>
       <c r="I29" t="n">
-        <v>75.9213923716117</v>
+        <v>75.92139237161169</v>
       </c>
       <c r="J29" t="n">
-        <v>173.0853833323132</v>
+        <v>340.4910323526661</v>
       </c>
       <c r="K29" t="n">
-        <v>690.3514953075302</v>
+        <v>857.7571443278831</v>
       </c>
       <c r="L29" t="n">
-        <v>970.8578721485044</v>
+        <v>1551.748123573803</v>
       </c>
       <c r="M29" t="n">
-        <v>1759.663099778631</v>
+        <v>1895.534953046026</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.600023116476</v>
+        <v>2682.47187638387</v>
       </c>
       <c r="O29" t="n">
-        <v>3244.494607089812</v>
+        <v>3003.374280907089</v>
       </c>
       <c r="P29" t="n">
-        <v>3483.876384151902</v>
+        <v>3561.336779058947</v>
       </c>
       <c r="Q29" t="n">
-        <v>3739.872954817781</v>
+        <v>3739.87295481778</v>
       </c>
       <c r="R29" t="n">
         <v>3796.069618580585</v>
       </c>
       <c r="S29" t="n">
-        <v>3730.473407653111</v>
+        <v>3730.47340765311</v>
       </c>
       <c r="T29" t="n">
-        <v>3589.488014447065</v>
+        <v>3589.488014447064</v>
       </c>
       <c r="U29" t="n">
         <v>3405.688089402459</v>
@@ -6534,10 +6534,10 @@
         <v>201.210550943157</v>
       </c>
       <c r="H30" t="n">
-        <v>105.0113211179975</v>
+        <v>105.0113211179974</v>
       </c>
       <c r="I30" t="n">
-        <v>75.9213923716117</v>
+        <v>75.92139237161169</v>
       </c>
       <c r="J30" t="n">
         <v>114.973752790837</v>
@@ -6549,10 +6549,10 @@
         <v>501.0358102937422</v>
       </c>
       <c r="M30" t="n">
-        <v>1240.006807708747</v>
+        <v>1262.863653709366</v>
       </c>
       <c r="N30" t="n">
-        <v>2037.704980637542</v>
+        <v>1647.78128455358</v>
       </c>
       <c r="O30" t="n">
         <v>2311.10359154458</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>632.0562754490646</v>
+        <v>2424.523877508314</v>
       </c>
       <c r="C31" t="n">
-        <v>532.9388479913717</v>
+        <v>2325.406450050622</v>
       </c>
       <c r="D31" t="n">
-        <v>452.64096404925</v>
+        <v>2245.1085661085</v>
       </c>
       <c r="E31" t="n">
-        <v>374.5466259370709</v>
+        <v>2167.014227996321</v>
       </c>
       <c r="F31" t="n">
-        <v>297.4754339093744</v>
+        <v>2089.943035968624</v>
       </c>
       <c r="G31" t="n">
-        <v>199.0967879659713</v>
+        <v>1991.564390025221</v>
       </c>
       <c r="H31" t="n">
-        <v>118.3012260813811</v>
+        <v>1910.768828140631</v>
       </c>
       <c r="I31" t="n">
-        <v>75.9213923716117</v>
+        <v>1868.388994430862</v>
       </c>
       <c r="J31" t="n">
-        <v>155.2034745571881</v>
+        <v>1947.671076616438</v>
       </c>
       <c r="K31" t="n">
-        <v>371.3040262075355</v>
+        <v>2163.771628266786</v>
       </c>
       <c r="L31" t="n">
-        <v>684.2281040856966</v>
+        <v>2476.695706144947</v>
       </c>
       <c r="M31" t="n">
-        <v>1020.831986372147</v>
+        <v>2813.299588431398</v>
       </c>
       <c r="N31" t="n">
-        <v>1356.493894393185</v>
+        <v>3148.961496452435</v>
       </c>
       <c r="O31" t="n">
-        <v>1655.739469988108</v>
+        <v>3448.207072047358</v>
       </c>
       <c r="P31" t="n">
-        <v>1898.151295256863</v>
+        <v>3690.618897316113</v>
       </c>
       <c r="Q31" t="n">
-        <v>2003.602016521335</v>
+        <v>3796.069618580585</v>
       </c>
       <c r="R31" t="n">
-        <v>1961.352883448069</v>
+        <v>3753.820485507319</v>
       </c>
       <c r="S31" t="n">
-        <v>1830.866839297468</v>
+        <v>3623.334441356718</v>
       </c>
       <c r="T31" t="n">
-        <v>1676.805838877954</v>
+        <v>3469.273440937203</v>
       </c>
       <c r="U31" t="n">
-        <v>1457.494751212629</v>
+        <v>3249.962353271879</v>
       </c>
       <c r="V31" t="n">
-        <v>1272.629018476956</v>
+        <v>3065.096620536206</v>
       </c>
       <c r="W31" t="n">
-        <v>1053.03060391021</v>
+        <v>2845.498205969459</v>
       </c>
       <c r="X31" t="n">
-        <v>894.8598084824065</v>
+        <v>2687.327410541656</v>
       </c>
       <c r="Y31" t="n">
-        <v>743.8859848090904</v>
+        <v>2536.35358686834</v>
       </c>
     </row>
     <row r="32">
@@ -6674,61 +6674,61 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1920.745393838831</v>
+        <v>1920.745393838832</v>
       </c>
       <c r="C32" t="n">
         <v>1621.601632368634</v>
       </c>
       <c r="D32" t="n">
-        <v>1333.154689232097</v>
+        <v>1333.154689232098</v>
       </c>
       <c r="E32" t="n">
         <v>1017.185192104067</v>
       </c>
       <c r="F32" t="n">
-        <v>676.0180427846733</v>
+        <v>676.018042784674</v>
       </c>
       <c r="G32" t="n">
-        <v>329.6618007416926</v>
+        <v>329.6618007416932</v>
       </c>
       <c r="H32" t="n">
-        <v>90.60549268859752</v>
+        <v>90.60549268859742</v>
       </c>
       <c r="I32" t="n">
-        <v>75.9213923716117</v>
+        <v>75.92139237161169</v>
       </c>
       <c r="J32" t="n">
-        <v>213.7347916347817</v>
+        <v>340.4910323526661</v>
       </c>
       <c r="K32" t="n">
-        <v>731.0009036099987</v>
+        <v>536.85318588243</v>
       </c>
       <c r="L32" t="n">
-        <v>1011.507280450973</v>
+        <v>1230.84416512835</v>
       </c>
       <c r="M32" t="n">
-        <v>1355.294109923195</v>
+        <v>1621.682614439305</v>
       </c>
       <c r="N32" t="n">
-        <v>2142.23103326104</v>
+        <v>2408.61953777715</v>
       </c>
       <c r="O32" t="n">
-        <v>2840.125617234376</v>
+        <v>3106.514121750486</v>
       </c>
       <c r="P32" t="n">
-        <v>3398.088115386234</v>
+        <v>3664.476619902344</v>
       </c>
       <c r="Q32" t="n">
-        <v>3739.872954817781</v>
+        <v>3796.069618580585</v>
       </c>
       <c r="R32" t="n">
         <v>3796.069618580585</v>
       </c>
       <c r="S32" t="n">
-        <v>3730.473407653111</v>
+        <v>3730.47340765311</v>
       </c>
       <c r="T32" t="n">
-        <v>3589.488014447065</v>
+        <v>3589.488014447064</v>
       </c>
       <c r="U32" t="n">
         <v>3405.68808940246</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>967.3230178750708</v>
+        <v>2159.330293468813</v>
       </c>
       <c r="C33" t="n">
-        <v>792.8699885939438</v>
+        <v>1984.877264187686</v>
       </c>
       <c r="D33" t="n">
-        <v>643.9355789326926</v>
+        <v>1835.942854526434</v>
       </c>
       <c r="E33" t="n">
-        <v>484.6981239272371</v>
+        <v>1676.705399520979</v>
       </c>
       <c r="F33" t="n">
-        <v>338.1635659541221</v>
+        <v>1530.170841547864</v>
       </c>
       <c r="G33" t="n">
-        <v>201.210550943157</v>
+        <v>1393.217826536899</v>
       </c>
       <c r="H33" t="n">
-        <v>105.0113211179975</v>
+        <v>1297.018596711739</v>
       </c>
       <c r="I33" t="n">
-        <v>75.9213923716117</v>
+        <v>1267.928667965353</v>
       </c>
       <c r="J33" t="n">
-        <v>114.973752790837</v>
+        <v>1306.981028384579</v>
       </c>
       <c r="K33" t="n">
-        <v>259.8752816406684</v>
+        <v>1451.88255723441</v>
       </c>
       <c r="L33" t="n">
-        <v>501.0358102937422</v>
+        <v>1693.043085887484</v>
       </c>
       <c r="M33" t="n">
-        <v>1262.863653709366</v>
+        <v>1993.822916190608</v>
       </c>
       <c r="N33" t="n">
-        <v>1586.012876038043</v>
+        <v>2791.521089119403</v>
       </c>
       <c r="O33" t="n">
-        <v>2249.335183029043</v>
+        <v>3454.843396110403</v>
       </c>
       <c r="P33" t="n">
-        <v>2511.197013801507</v>
+        <v>3712.231661213164</v>
       </c>
       <c r="Q33" t="n">
-        <v>2595.034971168928</v>
+        <v>3796.069618580585</v>
       </c>
       <c r="R33" t="n">
-        <v>2604.062342986842</v>
+        <v>3796.069618580585</v>
       </c>
       <c r="S33" t="n">
-        <v>2463.667046995346</v>
+        <v>3655.674322589088</v>
       </c>
       <c r="T33" t="n">
-        <v>2268.646275878232</v>
+        <v>3460.653551471974</v>
       </c>
       <c r="U33" t="n">
-        <v>2040.53961882557</v>
+        <v>3232.546894419312</v>
       </c>
       <c r="V33" t="n">
-        <v>1805.387510593827</v>
+        <v>2997.394786187569</v>
       </c>
       <c r="W33" t="n">
-        <v>1551.150153865625</v>
+        <v>2743.157429459367</v>
       </c>
       <c r="X33" t="n">
-        <v>1343.298653660093</v>
+        <v>2535.305929253835</v>
       </c>
       <c r="Y33" t="n">
-        <v>1135.538354895139</v>
+        <v>2327.545630488881</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>632.0562754490645</v>
+        <v>632.0562754490638</v>
       </c>
       <c r="C34" t="n">
-        <v>532.9388479913716</v>
+        <v>532.9388479913711</v>
       </c>
       <c r="D34" t="n">
-        <v>452.6409640492499</v>
+        <v>452.6409640492494</v>
       </c>
       <c r="E34" t="n">
-        <v>374.5466259370708</v>
+        <v>374.5466259370704</v>
       </c>
       <c r="F34" t="n">
-        <v>297.4754339093744</v>
+        <v>297.4754339093741</v>
       </c>
       <c r="G34" t="n">
-        <v>199.0967879659711</v>
+        <v>199.096787965971</v>
       </c>
       <c r="H34" t="n">
-        <v>118.3012260813811</v>
+        <v>118.301226081381</v>
       </c>
       <c r="I34" t="n">
-        <v>75.9213923716117</v>
+        <v>75.92139237161169</v>
       </c>
       <c r="J34" t="n">
         <v>155.2034745571884</v>
       </c>
       <c r="K34" t="n">
-        <v>371.3040262075358</v>
+        <v>371.3040262075359</v>
       </c>
       <c r="L34" t="n">
-        <v>684.2281040856969</v>
+        <v>684.2281040856972</v>
       </c>
       <c r="M34" t="n">
         <v>1020.831986372148</v>
       </c>
       <c r="N34" t="n">
-        <v>1356.493894393185</v>
+        <v>1356.493894393186</v>
       </c>
       <c r="O34" t="n">
-        <v>1655.739469988108</v>
+        <v>1655.739469988107</v>
       </c>
       <c r="P34" t="n">
-        <v>1898.151295256863</v>
+        <v>1898.151295256862</v>
       </c>
       <c r="Q34" t="n">
-        <v>2003.602016521334</v>
+        <v>2003.602016521333</v>
       </c>
       <c r="R34" t="n">
-        <v>1961.352883448069</v>
+        <v>1961.352883448067</v>
       </c>
       <c r="S34" t="n">
-        <v>1830.866839297468</v>
+        <v>1830.866839297467</v>
       </c>
       <c r="T34" t="n">
-        <v>1676.805838877954</v>
+        <v>1676.805838877952</v>
       </c>
       <c r="U34" t="n">
-        <v>1457.494751212629</v>
+        <v>1457.494751212628</v>
       </c>
       <c r="V34" t="n">
-        <v>1272.629018476956</v>
+        <v>1272.629018476955</v>
       </c>
       <c r="W34" t="n">
-        <v>1053.03060391021</v>
+        <v>1053.030603910209</v>
       </c>
       <c r="X34" t="n">
-        <v>894.8598084824064</v>
+        <v>894.8598084824055</v>
       </c>
       <c r="Y34" t="n">
-        <v>743.8859848090902</v>
+        <v>743.8859848090895</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>712.8870642671568</v>
+        <v>787.4472838756046</v>
       </c>
       <c r="C35" t="n">
-        <v>712.8870642671568</v>
+        <v>787.4472838756046</v>
       </c>
       <c r="D35" t="n">
-        <v>462.6823370328813</v>
+        <v>543.8137194299501</v>
       </c>
       <c r="E35" t="n">
-        <v>184.955055807112</v>
+        <v>543.8137194299501</v>
       </c>
       <c r="F35" t="n">
-        <v>184.955055807112</v>
+        <v>240.8887860128175</v>
       </c>
       <c r="G35" t="n">
-        <v>40.07469386198351</v>
+        <v>240.8887860128175</v>
       </c>
       <c r="H35" t="n">
         <v>40.07469386198351</v>
@@ -6938,16 +6938,16 @@
         <v>137.2386848226852</v>
       </c>
       <c r="K35" t="n">
-        <v>333.6008383524495</v>
+        <v>333.6008383524492</v>
       </c>
       <c r="L35" t="n">
-        <v>614.1072151934239</v>
+        <v>614.1072151934231</v>
       </c>
       <c r="M35" t="n">
-        <v>957.8940446656464</v>
+        <v>957.8940446656457</v>
       </c>
       <c r="N35" t="n">
-        <v>1311.857512835627</v>
+        <v>1311.857512835626</v>
       </c>
       <c r="O35" t="n">
         <v>1632.759917358845</v>
@@ -6962,25 +6962,25 @@
         <v>2003.734693099176</v>
       </c>
       <c r="S35" t="n">
-        <v>1976.380698073963</v>
+        <v>2003.734693099176</v>
       </c>
       <c r="T35" t="n">
-        <v>1873.637520770177</v>
+        <v>2003.734693099176</v>
       </c>
       <c r="U35" t="n">
-        <v>1728.079811627833</v>
+        <v>1858.176983956832</v>
       </c>
       <c r="V35" t="n">
-        <v>1505.077895656738</v>
+        <v>1858.176983956832</v>
       </c>
       <c r="W35" t="n">
-        <v>1260.370211759098</v>
+        <v>1613.469300059193</v>
       </c>
       <c r="X35" t="n">
-        <v>994.9654248704935</v>
+        <v>1348.064513170588</v>
       </c>
       <c r="Y35" t="n">
-        <v>712.8870642671568</v>
+        <v>1065.986152567251</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>475.0563393598788</v>
+        <v>794.3254192465819</v>
       </c>
       <c r="C36" t="n">
-        <v>336.6411461417313</v>
+        <v>619.8723899654549</v>
       </c>
       <c r="D36" t="n">
-        <v>187.70673648048</v>
+        <v>470.9379803042037</v>
       </c>
       <c r="E36" t="n">
-        <v>136.5302528474995</v>
+        <v>419.7614966712232</v>
       </c>
       <c r="F36" t="n">
-        <v>98.05666624685938</v>
+        <v>273.2269386981081</v>
       </c>
       <c r="G36" t="n">
-        <v>69.16462260836926</v>
+        <v>136.2739236871431</v>
       </c>
       <c r="H36" t="n">
-        <v>69.16462260836926</v>
+        <v>40.07469386198351</v>
       </c>
       <c r="I36" t="n">
         <v>40.07469386198351</v>
@@ -7026,16 +7026,16 @@
         <v>765.9689420872378</v>
       </c>
       <c r="N36" t="n">
-        <v>1214.851605114868</v>
+        <v>1261.893278629284</v>
       </c>
       <c r="O36" t="n">
-        <v>1710.775941656914</v>
+        <v>1535.291889536322</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.869363913841</v>
+        <v>1919.896735731755</v>
       </c>
       <c r="Q36" t="n">
-        <v>1994.707321281262</v>
+        <v>2003.734693099176</v>
       </c>
       <c r="R36" t="n">
         <v>2003.734693099176</v>
@@ -7050,16 +7050,16 @@
         <v>1440.211968937903</v>
       </c>
       <c r="V36" t="n">
-        <v>1205.05986070616</v>
+        <v>1313.120832078635</v>
       </c>
       <c r="W36" t="n">
-        <v>950.8225039779586</v>
+        <v>1058.883475350434</v>
       </c>
       <c r="X36" t="n">
-        <v>742.9710037724258</v>
+        <v>954.1791122866537</v>
       </c>
       <c r="Y36" t="n">
-        <v>535.2107050074719</v>
+        <v>854.4797848941748</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>328.5140656236097</v>
+        <v>911.9283386019326</v>
       </c>
       <c r="C37" t="n">
-        <v>267.6388540681777</v>
+        <v>851.0531270465008</v>
       </c>
       <c r="D37" t="n">
-        <v>225.5831860283169</v>
+        <v>808.99745900664</v>
       </c>
       <c r="E37" t="n">
-        <v>185.7310638183988</v>
+        <v>769.1453367967219</v>
       </c>
       <c r="F37" t="n">
-        <v>146.9020876929633</v>
+        <v>730.3163606712866</v>
       </c>
       <c r="G37" t="n">
-        <v>86.76565765182104</v>
+        <v>670.1799306301443</v>
       </c>
       <c r="H37" t="n">
-        <v>44.21231166949192</v>
+        <v>627.6265846478152</v>
       </c>
       <c r="I37" t="n">
-        <v>40.07469386198351</v>
+        <v>623.4889668403068</v>
       </c>
       <c r="J37" t="n">
-        <v>50.92741381120343</v>
+        <v>634.3416867895268</v>
       </c>
       <c r="K37" t="n">
-        <v>198.5986032251941</v>
+        <v>782.0128762035174</v>
       </c>
       <c r="L37" t="n">
-        <v>443.0933188669985</v>
+        <v>1026.507591845322</v>
       </c>
       <c r="M37" t="n">
-        <v>711.2678389170926</v>
+        <v>1294.682111895416</v>
       </c>
       <c r="N37" t="n">
-        <v>978.5003847017733</v>
+        <v>1561.914657680097</v>
       </c>
       <c r="O37" t="n">
-        <v>1209.31659806034</v>
+        <v>1792.730871038663</v>
       </c>
       <c r="P37" t="n">
-        <v>1383.299061092738</v>
+        <v>1966.713334071061</v>
       </c>
       <c r="Q37" t="n">
-        <v>1420.320420120853</v>
+        <v>2003.734693099176</v>
       </c>
       <c r="R37" t="n">
-        <v>1416.313502949848</v>
+        <v>1999.727775928171</v>
       </c>
       <c r="S37" t="n">
-        <v>1324.069674701508</v>
+        <v>1907.483947679832</v>
       </c>
       <c r="T37" t="n">
-        <v>1143.810333638933</v>
+        <v>1727.224606617256</v>
       </c>
       <c r="U37" t="n">
-        <v>962.7414618758696</v>
+        <v>1546.155734854192</v>
       </c>
       <c r="V37" t="n">
-        <v>816.1179450424577</v>
+        <v>1399.53221802078</v>
       </c>
       <c r="W37" t="n">
-        <v>634.761746377972</v>
+        <v>1218.176019356295</v>
       </c>
       <c r="X37" t="n">
-        <v>514.8331668524296</v>
+        <v>1098.247439830752</v>
       </c>
       <c r="Y37" t="n">
-        <v>402.1015590813744</v>
+        <v>985.5158320596973</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>944.4606663617541</v>
+        <v>905.6509979927353</v>
       </c>
       <c r="C38" t="n">
-        <v>683.5591207938173</v>
+        <v>644.7494524247986</v>
       </c>
       <c r="D38" t="n">
-        <v>651.1136534198358</v>
+        <v>394.5447251905232</v>
       </c>
       <c r="E38" t="n">
-        <v>651.1136534198358</v>
+        <v>240.8887860128175</v>
       </c>
       <c r="F38" t="n">
-        <v>348.1887200027033</v>
+        <v>240.8887860128175</v>
       </c>
       <c r="G38" t="n">
-        <v>40.07469386198351</v>
+        <v>240.8887860128175</v>
       </c>
       <c r="H38" t="n">
         <v>40.07469386198351</v>
@@ -7175,13 +7175,13 @@
         <v>137.238684822685</v>
       </c>
       <c r="K38" t="n">
-        <v>333.6008383524493</v>
+        <v>333.6008383524489</v>
       </c>
       <c r="L38" t="n">
-        <v>614.1072151934235</v>
+        <v>614.107215193423</v>
       </c>
       <c r="M38" t="n">
-        <v>957.894044665646</v>
+        <v>957.8940446656455</v>
       </c>
       <c r="N38" t="n">
         <v>1311.857512835626</v>
@@ -7193,7 +7193,7 @@
         <v>1872.141694420935</v>
       </c>
       <c r="Q38" t="n">
-        <v>2003.734693099176</v>
+        <v>2003.734693099175</v>
       </c>
       <c r="R38" t="n">
         <v>2003.734693099176</v>
@@ -7202,22 +7202,22 @@
         <v>1976.380698073963</v>
       </c>
       <c r="T38" t="n">
-        <v>1873.637520770177</v>
+        <v>1976.380698073963</v>
       </c>
       <c r="U38" t="n">
-        <v>1728.079811627833</v>
+        <v>1976.380698073963</v>
       </c>
       <c r="V38" t="n">
-        <v>1505.077895656738</v>
+        <v>1976.380698073963</v>
       </c>
       <c r="W38" t="n">
-        <v>1505.077895656738</v>
+        <v>1731.673014176323</v>
       </c>
       <c r="X38" t="n">
-        <v>1505.077895656738</v>
+        <v>1466.268227287719</v>
       </c>
       <c r="Y38" t="n">
-        <v>1222.999535053401</v>
+        <v>1184.189866684382</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>391.1714625030679</v>
+        <v>583.1173107323539</v>
       </c>
       <c r="C39" t="n">
-        <v>324.7794045944158</v>
+        <v>408.6642814512269</v>
       </c>
       <c r="D39" t="n">
-        <v>283.9059663056395</v>
+        <v>259.7298717899756</v>
       </c>
       <c r="E39" t="n">
-        <v>232.729482672659</v>
+        <v>208.5533881569951</v>
       </c>
       <c r="F39" t="n">
-        <v>194.2558960720189</v>
+        <v>170.0798015563551</v>
       </c>
       <c r="G39" t="n">
-        <v>165.3638524335288</v>
+        <v>40.07469386198351</v>
       </c>
       <c r="H39" t="n">
-        <v>69.16462260836926</v>
+        <v>40.07469386198351</v>
       </c>
       <c r="I39" t="n">
         <v>40.07469386198351</v>
@@ -7257,22 +7257,22 @@
         <v>224.0285831310402</v>
       </c>
       <c r="L39" t="n">
-        <v>618.3037718791527</v>
+        <v>719.9529196730862</v>
       </c>
       <c r="M39" t="n">
-        <v>1114.228108421199</v>
+        <v>1020.73274997621</v>
       </c>
       <c r="N39" t="n">
-        <v>1437.377330749875</v>
+        <v>1343.881972304887</v>
       </c>
       <c r="O39" t="n">
-        <v>1710.775941656914</v>
+        <v>1617.280583211925</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.869363913841</v>
+        <v>1919.896735731755</v>
       </c>
       <c r="Q39" t="n">
-        <v>1994.707321281262</v>
+        <v>2003.734693099176</v>
       </c>
       <c r="R39" t="n">
         <v>2003.734693099176</v>
@@ -7287,16 +7287,16 @@
         <v>1440.211968937903</v>
       </c>
       <c r="V39" t="n">
-        <v>1205.05986070616</v>
+        <v>1313.120832078635</v>
       </c>
       <c r="W39" t="n">
-        <v>950.8225039779586</v>
+        <v>1058.883475350434</v>
       </c>
       <c r="X39" t="n">
-        <v>742.9710037724258</v>
+        <v>851.0319751449008</v>
       </c>
       <c r="Y39" t="n">
-        <v>535.2107050074719</v>
+        <v>751.332647752422</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>328.5140656236097</v>
+        <v>392.954622168932</v>
       </c>
       <c r="C40" t="n">
-        <v>267.6388540681777</v>
+        <v>332.0794106135002</v>
       </c>
       <c r="D40" t="n">
-        <v>225.5831860283169</v>
+        <v>290.0237425736395</v>
       </c>
       <c r="E40" t="n">
-        <v>185.7310638183988</v>
+        <v>250.1716203637214</v>
       </c>
       <c r="F40" t="n">
-        <v>146.9020876929633</v>
+        <v>211.3426442382861</v>
       </c>
       <c r="G40" t="n">
-        <v>86.76565765182104</v>
+        <v>151.2062141971438</v>
       </c>
       <c r="H40" t="n">
-        <v>44.21231166949192</v>
+        <v>108.6528682148148</v>
       </c>
       <c r="I40" t="n">
         <v>40.07469386198351</v>
@@ -7357,25 +7357,25 @@
         <v>1416.313502949848</v>
       </c>
       <c r="S40" t="n">
-        <v>1259.629118156187</v>
+        <v>1324.069674701508</v>
       </c>
       <c r="T40" t="n">
-        <v>1143.810333638933</v>
+        <v>1208.250890184255</v>
       </c>
       <c r="U40" t="n">
-        <v>962.7414618758696</v>
+        <v>1027.182018421192</v>
       </c>
       <c r="V40" t="n">
-        <v>816.1179450424577</v>
+        <v>880.5585015877797</v>
       </c>
       <c r="W40" t="n">
-        <v>634.761746377972</v>
+        <v>699.2023029232942</v>
       </c>
       <c r="X40" t="n">
-        <v>514.8331668524296</v>
+        <v>579.2737233977518</v>
       </c>
       <c r="Y40" t="n">
-        <v>402.1015590813744</v>
+        <v>466.5421156266967</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>743.538683787481</v>
+        <v>370.7949949001343</v>
       </c>
       <c r="C41" t="n">
-        <v>412.8183827493302</v>
+        <v>40.07469386198351</v>
       </c>
       <c r="D41" t="n">
-        <v>412.8183827493302</v>
+        <v>40.07469386198351</v>
       </c>
       <c r="E41" t="n">
-        <v>412.8183827493302</v>
+        <v>40.07469386198351</v>
       </c>
       <c r="F41" t="n">
         <v>40.07469386198351</v>
@@ -7430,31 +7430,31 @@
         <v>1872.141694420935</v>
       </c>
       <c r="Q41" t="n">
-        <v>2003.734693099175</v>
+        <v>2003.734693099176</v>
       </c>
       <c r="R41" t="n">
         <v>2003.734693099176</v>
       </c>
       <c r="S41" t="n">
-        <v>1906.561942603748</v>
+        <v>1906.561942603749</v>
       </c>
       <c r="T41" t="n">
         <v>1734.000009829749</v>
       </c>
       <c r="U41" t="n">
-        <v>1734.000009829749</v>
+        <v>1699.093948935674</v>
       </c>
       <c r="V41" t="n">
-        <v>1734.000009829749</v>
+        <v>1406.273277494365</v>
       </c>
       <c r="W41" t="n">
-        <v>1419.473570461896</v>
+        <v>1406.273277494365</v>
       </c>
       <c r="X41" t="n">
-        <v>1084.250028103077</v>
+        <v>1071.049735135546</v>
       </c>
       <c r="Y41" t="n">
-        <v>743.538683787481</v>
+        <v>719.1526190619951</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>672.9330952054909</v>
+        <v>672.9330952054913</v>
       </c>
       <c r="C42" t="n">
-        <v>536.7222818266248</v>
+        <v>536.7222818266252</v>
       </c>
       <c r="D42" t="n">
-        <v>426.0300880676344</v>
+        <v>426.0300880676349</v>
       </c>
       <c r="E42" t="n">
-        <v>305.0348489644399</v>
+        <v>305.0348489644402</v>
       </c>
       <c r="F42" t="n">
-        <v>196.7425068935858</v>
+        <v>196.7425068935861</v>
       </c>
       <c r="G42" t="n">
-        <v>98.03170778488214</v>
+        <v>98.03170778488209</v>
       </c>
       <c r="H42" t="n">
         <v>40.07469386198351</v>
@@ -7497,16 +7497,16 @@
         <v>465.189111784114</v>
       </c>
       <c r="M42" t="n">
-        <v>765.9689420872378</v>
+        <v>827.4245659539937</v>
       </c>
       <c r="N42" t="n">
-        <v>1089.118164415915</v>
+        <v>1150.573788282671</v>
       </c>
       <c r="O42" t="n">
-        <v>1511.826798616337</v>
+        <v>1423.972399189709</v>
       </c>
       <c r="P42" t="n">
-        <v>1711.920220873264</v>
+        <v>1919.896735731755</v>
       </c>
       <c r="Q42" t="n">
         <v>2003.734693099176</v>
@@ -7521,7 +7521,7 @@
         <v>1744.803057795087</v>
       </c>
       <c r="U42" t="n">
-        <v>1554.938616644686</v>
+        <v>1554.938616644685</v>
       </c>
       <c r="V42" t="n">
         <v>1358.028724315204</v>
@@ -7530,10 +7530,10 @@
         <v>1142.033583489263</v>
       </c>
       <c r="X42" t="n">
-        <v>972.4242991859911</v>
+        <v>972.4242991859915</v>
       </c>
       <c r="Y42" t="n">
-        <v>802.9062163232979</v>
+        <v>802.9062163232984</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>207.841638311431</v>
+        <v>686.5513868894617</v>
       </c>
       <c r="C43" t="n">
-        <v>77.14767128578501</v>
+        <v>686.5513868894617</v>
       </c>
       <c r="D43" t="n">
-        <v>77.14767128578501</v>
+        <v>574.676963379387</v>
       </c>
       <c r="E43" t="n">
-        <v>40.07469386198351</v>
+        <v>465.0060856992548</v>
       </c>
       <c r="F43" t="n">
-        <v>40.07469386198351</v>
+        <v>356.3583541036054</v>
       </c>
       <c r="G43" t="n">
-        <v>40.07469386198351</v>
+        <v>226.4031685922491</v>
       </c>
       <c r="H43" t="n">
-        <v>40.07469386198351</v>
+        <v>114.0310671397059</v>
       </c>
       <c r="I43" t="n">
         <v>40.07469386198351</v>
       </c>
       <c r="J43" t="n">
-        <v>88.40860961700935</v>
+        <v>88.40860961700938</v>
       </c>
       <c r="K43" t="n">
-        <v>273.5609948368059</v>
+        <v>273.560994836806</v>
       </c>
       <c r="L43" t="n">
         <v>555.5369062844163</v>
       </c>
       <c r="M43" t="n">
-        <v>861.1926221403163</v>
+        <v>861.1926221403164</v>
       </c>
       <c r="N43" t="n">
         <v>1165.906363730803</v>
@@ -7603,16 +7603,16 @@
         <v>1047.756562986782</v>
       </c>
       <c r="V43" t="n">
-        <v>831.3142906831563</v>
+        <v>1047.756562986782</v>
       </c>
       <c r="W43" t="n">
-        <v>580.1393365484566</v>
+        <v>1012.50799905871</v>
       </c>
       <c r="X43" t="n">
-        <v>390.3920015527002</v>
+        <v>1012.50799905871</v>
       </c>
       <c r="Y43" t="n">
-        <v>207.841638311431</v>
+        <v>829.9576358174404</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>630.7310241875211</v>
+        <v>690.8184776046237</v>
       </c>
       <c r="C44" t="n">
-        <v>630.7310241875211</v>
+        <v>360.098176566473</v>
       </c>
       <c r="D44" t="n">
-        <v>310.7075414830316</v>
+        <v>40.07469386198351</v>
       </c>
       <c r="E44" t="n">
-        <v>310.7075414830316</v>
+        <v>40.07469386198351</v>
       </c>
       <c r="F44" t="n">
-        <v>310.7075414830316</v>
+        <v>40.07469386198351</v>
       </c>
       <c r="G44" t="n">
-        <v>310.7075414830316</v>
+        <v>40.07469386198351</v>
       </c>
       <c r="H44" t="n">
         <v>40.07469386198351</v>
@@ -7646,13 +7646,13 @@
         <v>40.07469386198351</v>
       </c>
       <c r="J44" t="n">
-        <v>137.2386848226852</v>
+        <v>137.238684822685</v>
       </c>
       <c r="K44" t="n">
-        <v>333.6008383524495</v>
+        <v>333.6008383524489</v>
       </c>
       <c r="L44" t="n">
-        <v>614.1072151934236</v>
+        <v>614.1072151934235</v>
       </c>
       <c r="M44" t="n">
         <v>957.894044665646</v>
@@ -7679,19 +7679,19 @@
         <v>1734.000009829749</v>
       </c>
       <c r="U44" t="n">
-        <v>1518.623545217191</v>
+        <v>1518.623545217192</v>
       </c>
       <c r="V44" t="n">
-        <v>1330.985764422933</v>
+        <v>1225.802873775882</v>
       </c>
       <c r="W44" t="n">
-        <v>1330.985764422933</v>
+        <v>1225.802873775882</v>
       </c>
       <c r="X44" t="n">
-        <v>1330.985764422933</v>
+        <v>890.579331417063</v>
       </c>
       <c r="Y44" t="n">
-        <v>979.088648349382</v>
+        <v>890.579331417063</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>672.9330952054906</v>
+        <v>672.9330952054908</v>
       </c>
       <c r="C45" t="n">
-        <v>536.7222818266246</v>
+        <v>536.7222818266248</v>
       </c>
       <c r="D45" t="n">
-        <v>426.0300880676343</v>
+        <v>426.0300880676346</v>
       </c>
       <c r="E45" t="n">
-        <v>305.0348489644397</v>
+        <v>305.0348489644401</v>
       </c>
       <c r="F45" t="n">
-        <v>196.7425068935857</v>
+        <v>196.742506893586</v>
       </c>
       <c r="G45" t="n">
-        <v>98.03170778488207</v>
+        <v>98.031707784882</v>
       </c>
       <c r="H45" t="n">
         <v>40.07469386198351</v>
@@ -7725,28 +7725,28 @@
         <v>40.07469386198351</v>
       </c>
       <c r="J45" t="n">
-        <v>79.12705428120881</v>
+        <v>131.5553063300506</v>
       </c>
       <c r="K45" t="n">
-        <v>224.0285831310402</v>
+        <v>276.456835179882</v>
       </c>
       <c r="L45" t="n">
-        <v>719.9529196730862</v>
+        <v>517.6173638329558</v>
       </c>
       <c r="M45" t="n">
-        <v>1020.73274997621</v>
+        <v>818.3971941360795</v>
       </c>
       <c r="N45" t="n">
-        <v>1446.40470256779</v>
+        <v>1141.546416464756</v>
       </c>
       <c r="O45" t="n">
-        <v>1719.803313474828</v>
+        <v>1414.945027371795</v>
       </c>
       <c r="P45" t="n">
-        <v>1919.896735731755</v>
+        <v>1910.869363913841</v>
       </c>
       <c r="Q45" t="n">
-        <v>2003.734693099176</v>
+        <v>1994.707321281262</v>
       </c>
       <c r="R45" t="n">
         <v>2003.734693099176</v>
@@ -7758,16 +7758,16 @@
         <v>1744.803057795087</v>
       </c>
       <c r="U45" t="n">
-        <v>1554.938616644685</v>
+        <v>1554.938616644686</v>
       </c>
       <c r="V45" t="n">
-        <v>1358.028724315203</v>
+        <v>1358.028724315204</v>
       </c>
       <c r="W45" t="n">
-        <v>1142.033583489263</v>
+        <v>1142.033583489264</v>
       </c>
       <c r="X45" t="n">
-        <v>972.4242991859908</v>
+        <v>972.4242991859919</v>
       </c>
       <c r="Y45" t="n">
         <v>802.9062163232977</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>64.43538938345284</v>
+        <v>630.9168791848417</v>
       </c>
       <c r="C46" t="n">
-        <v>40.07469386198351</v>
+        <v>500.2229121591959</v>
       </c>
       <c r="D46" t="n">
-        <v>40.07469386198351</v>
+        <v>388.3484886491212</v>
       </c>
       <c r="E46" t="n">
-        <v>40.07469386198351</v>
+        <v>278.6776109689891</v>
       </c>
       <c r="F46" t="n">
-        <v>40.07469386198351</v>
+        <v>170.0298793733398</v>
       </c>
       <c r="G46" t="n">
         <v>40.07469386198351</v>
@@ -7804,16 +7804,16 @@
         <v>40.07469386198351</v>
       </c>
       <c r="J46" t="n">
-        <v>88.4086096170094</v>
+        <v>88.40860961700946</v>
       </c>
       <c r="K46" t="n">
-        <v>273.5609948368061</v>
+        <v>273.5609948368062</v>
       </c>
       <c r="L46" t="n">
-        <v>555.5369062844163</v>
+        <v>555.5369062844165</v>
       </c>
       <c r="M46" t="n">
-        <v>861.1926221403164</v>
+        <v>861.1926221403166</v>
       </c>
       <c r="N46" t="n">
         <v>1165.906363730803</v>
@@ -7825,31 +7825,31 @@
         <v>1645.66743173338</v>
       </c>
       <c r="Q46" t="n">
-        <v>1720.1699865673</v>
+        <v>1720.169986567301</v>
       </c>
       <c r="R46" t="n">
-        <v>1646.344313926081</v>
+        <v>1720.169986567301</v>
       </c>
       <c r="S46" t="n">
-        <v>1484.281730207528</v>
+        <v>1720.169986567301</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.64419022006</v>
+        <v>1720.169986567301</v>
       </c>
       <c r="U46" t="n">
-        <v>1047.756562986783</v>
+        <v>1469.282359334024</v>
       </c>
       <c r="V46" t="n">
-        <v>831.3142906831567</v>
+        <v>1252.840087030398</v>
       </c>
       <c r="W46" t="n">
-        <v>580.1393365484571</v>
+        <v>1001.665132895698</v>
       </c>
       <c r="X46" t="n">
-        <v>390.3920015527007</v>
+        <v>813.4672424261108</v>
       </c>
       <c r="Y46" t="n">
-        <v>207.8416383114316</v>
+        <v>630.9168791848417</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>8.952113041867108</v>
+        <v>8.952113041867136</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,13 +8772,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>163.7798302151031</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>197.1156628675982</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>141.6996479550189</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>36.40311241948829</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>8.952113041867136</v>
+        <v>8.952113041867165</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,16 +9006,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>186.3751756954596</v>
       </c>
       <c r="L15" t="n">
-        <v>257.3371796858305</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>103.5583133968715</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>174.5203173872412</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>36.40311241948831</v>
+        <v>36.40311241948832</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,22 +9243,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>197.115662867598</v>
       </c>
       <c r="N18" t="n">
-        <v>96.43025607012333</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>163.7798302151032</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>197.115662867598</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>28.57023748286201</v>
       </c>
       <c r="P21" t="n">
-        <v>141.6996479550203</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>128.0068781245679</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9653,10 +9653,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>125.6601737248868</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9717,19 +9717,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>272.7507159631294</v>
+        <v>451.7358979088838</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>84.2783838741631</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>54.13229736817721</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,25 +9957,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.7751583090414</v>
       </c>
       <c r="P27" t="n">
-        <v>232.5400527812023</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>36.40311241948831</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>125.6601737248868</v>
+        <v>47.41735058645733</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10197,13 +10197,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>442.6173405170513</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>62.39233183387563</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>41.06000838633182</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>47.52688872599214</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>8.952113041867136</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,22 +10434,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>62.39233183387591</v>
+        <v>57.87357863215476</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>36.40311241948831</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>127.003475453488</v>
+        <v>174.5203173872414</v>
       </c>
       <c r="O36" t="n">
-        <v>224.7734602373814</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>186.3751756954604</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>36.40311241948831</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,10 +10905,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>154.6612728232714</v>
+        <v>257.3371796858305</v>
       </c>
       <c r="M39" t="n">
-        <v>197.1156628675982</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>103.5583133968714</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>36.40311241948831</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11145,19 +11145,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>62.07638774419786</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>150.8182053468528</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>298.819105338504</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>36.40311241948831</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>52.95783035236541</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>257.3371796858305</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>103.5583133968714</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>298.819105338504</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>36.40311241948831</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>313.6132737479687</v>
       </c>
       <c r="C11" t="n">
-        <v>296.1523238554958</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>285.5624737051711</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>312.8098021567499</v>
       </c>
       <c r="F11" t="n">
-        <v>9.691756878420335</v>
+        <v>337.7554778261996</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>342.8926796225509</v>
       </c>
       <c r="H11" t="n">
-        <v>236.6657449725641</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>64.94024881819945</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>49.79449178985374</v>
       </c>
       <c r="W11" t="n">
-        <v>280.1204008019012</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>317.1173707405418</v>
+        <v>317.1173707405417</v>
       </c>
     </row>
     <row r="12">
@@ -23495,16 +23495,16 @@
         <v>313.6132737479687</v>
       </c>
       <c r="C14" t="n">
-        <v>296.1523238554958</v>
+        <v>296.1523238554957</v>
       </c>
       <c r="D14" t="n">
-        <v>285.5624737051711</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>312.8098021567499</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>337.7554778261996</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.94024881819951</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>139.5755392739858</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>258.6316905546231</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>67.63799258986941</v>
+        <v>173.6743657689015</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>300.6105327629572</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>317.1173707405417</v>
       </c>
     </row>
     <row r="15">
@@ -23729,25 +23729,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>313.6132737479687</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>296.1523238554957</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>285.5624737051711</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>337.7554778261996</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8926796225509</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>236.6657449725641</v>
+        <v>203.4059192559372</v>
       </c>
       <c r="I17" t="n">
         <v>14.53725931381597</v>
@@ -23783,22 +23783,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>139.5755392739857</v>
       </c>
       <c r="U17" t="n">
         <v>181.9619257941589</v>
       </c>
       <c r="V17" t="n">
-        <v>31.37658262290375</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>280.1204008019012</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>300.6105327629572</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>317.1173707405417</v>
       </c>
     </row>
     <row r="18">
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>313.6132737479687</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>88.7067885402833</v>
+        <v>296.1523238554957</v>
       </c>
       <c r="D20" t="n">
-        <v>285.5624737051711</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>236.6657449725641</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>14.53725931381597</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>64.94024881819945</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>139.5755392739857</v>
       </c>
       <c r="U20" t="n">
         <v>181.9619257941589</v>
@@ -24029,13 +24029,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>280.1204008019012</v>
+        <v>86.27266631670923</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>300.6105327629572</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>317.1173707405417</v>
       </c>
     </row>
     <row r="21">
@@ -25151,25 +25151,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>275.7534800047304</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>258.2925301122573</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.505451160734708</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>274.9500084135115</v>
       </c>
       <c r="F35" t="n">
-        <v>299.8956840829612</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>161.6013275536354</v>
+        <v>305.0328858793125</v>
       </c>
       <c r="H35" t="n">
-        <v>198.8059512293257</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,16 +25202,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>27.08045507496107</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>101.7157455307473</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>220.7718968113846</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25394,19 +25394,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>215.5816672616911</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>274.9500084135116</v>
+        <v>122.8306286275829</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>299.8956840829612</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>305.0328858793125</v>
       </c>
       <c r="H38" t="n">
-        <v>198.8059512293257</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25442,19 +25442,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>101.7157455307473</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>144.1021320509205</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>220.7718968113846</v>
       </c>
       <c r="W38" t="n">
-        <v>242.2606070586628</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7507390197188</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>344.8740479202423</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>316.8232478774447</v>
+        <v>316.8232478774446</v>
       </c>
       <c r="E41" t="n">
-        <v>344.0705763290235</v>
+        <v>344.0705763290234</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>369.0162519984731</v>
       </c>
       <c r="G41" t="n">
-        <v>374.1534537948245</v>
+        <v>374.1534537948244</v>
       </c>
       <c r="H41" t="n">
         <v>267.9265191448376</v>
       </c>
       <c r="I41" t="n">
-        <v>45.79803348608952</v>
+        <v>45.79803348608949</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,19 +25682,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>213.2226999664324</v>
+        <v>178.6656996812982</v>
       </c>
       <c r="V41" t="n">
-        <v>289.8924647268966</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>311.3811749741747</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>11.0739140403752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>141.972186438699</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>129.3870273553895</v>
       </c>
       <c r="D43" t="n">
-        <v>110.7556792749741</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>71.8719212537674</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>107.5612542796929</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>128.6556336562428</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>111.2483804380177</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>73.21680954494522</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>214.2778495805897</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>213.7671263045606</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>187.8498616457988</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>147.1108026459272</v>
       </c>
       <c r="C44" t="n">
-        <v>327.4130980277692</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,16 +25874,16 @@
         <v>344.0705763290234</v>
       </c>
       <c r="F44" t="n">
-        <v>369.0162519984731</v>
+        <v>369.016251998473</v>
       </c>
       <c r="G44" t="n">
         <v>374.1534537948244</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.9265191448375</v>
       </c>
       <c r="I44" t="n">
-        <v>45.79803348608947</v>
+        <v>45.79803348608941</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,16 +25922,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>104.1310617405806</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>311.3811749741747</v>
+        <v>311.3811749741746</v>
       </c>
       <c r="X44" t="n">
-        <v>331.8713069352307</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>348.3781449128152</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>141.9721864386989</v>
       </c>
       <c r="C46" t="n">
-        <v>105.2699387891348</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>110.755679274974</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>108.5741689033308</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>107.5612542796929</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>128.6556336562427</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>111.2483804380177</v>
+        <v>111.2483804380176</v>
       </c>
       <c r="I46" t="n">
-        <v>73.21680954494516</v>
+        <v>73.21680954494511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>73.08741591480663</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>160.441957881368</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>183.7811645875929</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1.533950080907459</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>549166.131701883</v>
+        <v>549166.1317018829</v>
       </c>
     </row>
     <row r="6">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>506376.7316346837</v>
+        <v>506376.7316346838</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491121</v>
+        <v>798794.4302491125</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491118</v>
+        <v>798794.4302491122</v>
       </c>
       <c r="D2" t="n">
-        <v>798794.4302491123</v>
+        <v>798794.430249112</v>
       </c>
       <c r="E2" t="n">
-        <v>665557.884835349</v>
+        <v>665557.8848353493</v>
       </c>
       <c r="F2" t="n">
-        <v>665557.8848353494</v>
+        <v>665557.8848353485</v>
       </c>
       <c r="G2" t="n">
-        <v>665557.8848353494</v>
+        <v>665557.8848353487</v>
       </c>
       <c r="H2" t="n">
         <v>665557.8848353492</v>
       </c>
       <c r="I2" t="n">
+        <v>800515.7256176766</v>
+      </c>
+      <c r="J2" t="n">
         <v>800515.7256176767</v>
       </c>
-      <c r="J2" t="n">
-        <v>800515.7256176769</v>
-      </c>
       <c r="K2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176772</v>
+        <v>800515.7256176771</v>
       </c>
       <c r="M2" t="n">
-        <v>707822.3018244727</v>
+        <v>707822.301824473</v>
       </c>
       <c r="N2" t="n">
-        <v>707822.3018244725</v>
+        <v>707822.3018244728</v>
       </c>
       <c r="O2" t="n">
-        <v>611726.0589443566</v>
+        <v>611726.0589443569</v>
       </c>
       <c r="P2" t="n">
         <v>611726.0589443567</v>
@@ -26375,28 +26375,28 @@
         <v>862257.2749988337</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>119154.8739297355</v>
+        <v>119154.8739297354</v>
       </c>
       <c r="J3" t="n">
-        <v>55296.45433240952</v>
+        <v>55296.45433240955</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>43458.25191694514</v>
+        <v>43458.25191694508</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>447824.4539973085</v>
+        <v>447024.6202723928</v>
       </c>
       <c r="C4" t="n">
-        <v>447824.4539973085</v>
+        <v>447024.6202723928</v>
       </c>
       <c r="D4" t="n">
-        <v>447824.4539973085</v>
+        <v>447024.6202723928</v>
       </c>
       <c r="E4" t="n">
-        <v>104077.4018225054</v>
+        <v>103919.7333171564</v>
       </c>
       <c r="F4" t="n">
-        <v>104077.4018225054</v>
+        <v>103919.7333171564</v>
       </c>
       <c r="G4" t="n">
-        <v>104077.4018225055</v>
+        <v>103919.7333171564</v>
       </c>
       <c r="H4" t="n">
-        <v>104077.4018225055</v>
+        <v>103919.7333171564</v>
       </c>
       <c r="I4" t="n">
-        <v>169983.8070055637</v>
+        <v>169210.8502004702</v>
       </c>
       <c r="J4" t="n">
-        <v>169983.8070055638</v>
+        <v>169210.8502004703</v>
       </c>
       <c r="K4" t="n">
-        <v>169983.8070055637</v>
+        <v>169210.8502004702</v>
       </c>
       <c r="L4" t="n">
-        <v>169983.8070055637</v>
+        <v>169210.8502004703</v>
       </c>
       <c r="M4" t="n">
-        <v>128648.4375513127</v>
+        <v>128490.7690459637</v>
       </c>
       <c r="N4" t="n">
-        <v>128648.4375513127</v>
+        <v>128490.7690459637</v>
       </c>
       <c r="O4" t="n">
-        <v>72486.96016142235</v>
+        <v>72329.29165607333</v>
       </c>
       <c r="P4" t="n">
-        <v>72486.96016142244</v>
+        <v>72329.29165607346</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>54105.74613236521</v>
+        <v>54105.74613236518</v>
       </c>
       <c r="F5" t="n">
-        <v>54105.7461323652</v>
+        <v>54105.74613236518</v>
       </c>
       <c r="G5" t="n">
-        <v>54105.7461323652</v>
+        <v>54105.74613236519</v>
       </c>
       <c r="H5" t="n">
-        <v>54105.7461323652</v>
+        <v>54105.74613236519</v>
       </c>
       <c r="I5" t="n">
-        <v>81349.23699968262</v>
+        <v>81349.2369996826</v>
       </c>
       <c r="J5" t="n">
         <v>81349.23699968263</v>
@@ -26497,7 +26497,7 @@
         <v>81349.23699968262</v>
       </c>
       <c r="L5" t="n">
-        <v>81349.23699968262</v>
+        <v>81349.23699968263</v>
       </c>
       <c r="M5" t="n">
         <v>57288.58113256551</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>317342.3762518036</v>
+        <v>318142.2099767198</v>
       </c>
       <c r="C6" t="n">
-        <v>317342.3762518034</v>
+        <v>318142.2099767194</v>
       </c>
       <c r="D6" t="n">
-        <v>317342.3762518038</v>
+        <v>318142.2099767192</v>
       </c>
       <c r="E6" t="n">
-        <v>-354882.5381183552</v>
+        <v>-354724.8696130059</v>
       </c>
       <c r="F6" t="n">
-        <v>507374.7368804788</v>
+        <v>507532.4053858268</v>
       </c>
       <c r="G6" t="n">
-        <v>507374.7368804787</v>
+        <v>507532.4053858271</v>
       </c>
       <c r="H6" t="n">
-        <v>507374.7368804784</v>
+        <v>507532.4053858275</v>
       </c>
       <c r="I6" t="n">
-        <v>430027.8076826949</v>
+        <v>430800.7644877884</v>
       </c>
       <c r="J6" t="n">
-        <v>493886.2272800209</v>
+        <v>494659.1840851143</v>
       </c>
       <c r="K6" t="n">
-        <v>549182.6816124299</v>
+        <v>549955.6384175236</v>
       </c>
       <c r="L6" t="n">
-        <v>549182.6816124308</v>
+        <v>549955.6384175242</v>
       </c>
       <c r="M6" t="n">
-        <v>478427.0312236495</v>
+        <v>478584.6997289987</v>
       </c>
       <c r="N6" t="n">
-        <v>521885.2831405943</v>
+        <v>522042.9516459437</v>
       </c>
       <c r="O6" t="n">
-        <v>487761.4146744579</v>
+        <v>487919.0831798072</v>
       </c>
       <c r="P6" t="n">
-        <v>487761.4146744579</v>
+        <v>487919.083179807</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="F2" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="G2" t="n">
+        <v>69.12056791551187</v>
+      </c>
+      <c r="H2" t="n">
+        <v>69.12056791551187</v>
+      </c>
+      <c r="I2" t="n">
+        <v>69.12056791551187</v>
+      </c>
+      <c r="J2" t="n">
+        <v>69.12056791551194</v>
+      </c>
+      <c r="K2" t="n">
         <v>69.12056791551186</v>
       </c>
-      <c r="H2" t="n">
-        <v>69.12056791551186</v>
-      </c>
-      <c r="I2" t="n">
-        <v>69.12056791551186</v>
-      </c>
-      <c r="J2" t="n">
-        <v>69.12056791551193</v>
-      </c>
-      <c r="K2" t="n">
-        <v>69.12056791551184</v>
-      </c>
       <c r="L2" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="M2" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="N2" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="O2" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="P2" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>818.2606317967233</v>
+        <v>818.2606317967231</v>
       </c>
       <c r="F3" t="n">
-        <v>818.2606317967231</v>
+        <v>818.260631796723</v>
       </c>
       <c r="G3" t="n">
         <v>818.2606317967231</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>500.933673274794</v>
+        <v>500.9336732747936</v>
       </c>
       <c r="F4" t="n">
-        <v>500.9336732747939</v>
+        <v>500.9336732747936</v>
       </c>
       <c r="G4" t="n">
-        <v>500.9336732747939</v>
+        <v>500.9336732747938</v>
       </c>
       <c r="H4" t="n">
-        <v>500.9336732747939</v>
+        <v>500.9336732747938</v>
       </c>
       <c r="I4" t="n">
-        <v>949.0174046451463</v>
+        <v>949.017404645146</v>
       </c>
       <c r="J4" t="n">
-        <v>949.0174046451463</v>
+        <v>949.0174046451461</v>
       </c>
       <c r="K4" t="n">
-        <v>949.0174046451463</v>
+        <v>949.0174046451461</v>
       </c>
       <c r="L4" t="n">
-        <v>949.0174046451463</v>
+        <v>949.0174046451461</v>
       </c>
       <c r="M4" t="n">
         <v>500.9336732747939</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>69.1205679155119</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.85979374323834</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>818.2606317967233</v>
+        <v>818.2606317967231</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>500.9336732747939</v>
+        <v>500.9336732747936</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>52.84994190444161</v>
+        <v>52.84994190444138</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>69.1205679155119</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>500.9336732747939</v>
+        <v>500.9336732747936</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="C11" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="D11" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="E11" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="F11" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="G11" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="H11" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="I11" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="T11" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="U11" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="V11" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="W11" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="X11" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="Y11" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>69.12056791551183</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>46.19313699675327</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="F12" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="G12" t="n">
-        <v>69.12056791551183</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="I12" t="n">
-        <v>28.79902945892189</v>
+        <v>5.871598540164637</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,16 +28217,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="T12" t="n">
-        <v>69.12056791551183</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>69.12056791551187</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="C13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="D13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="E13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="F13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="G13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="H13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="I13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="J13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="K13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="L13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="M13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="N13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="O13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="P13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="R13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="S13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="T13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="U13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="V13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="W13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="X13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="Y13" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="C14" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="D14" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="E14" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="F14" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="G14" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="H14" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="I14" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="T14" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="U14" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="V14" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="W14" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="X14" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="Y14" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
     </row>
     <row r="15">
@@ -28403,19 +28403,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>46.19313699675357</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>28.79902945892189</v>
+        <v>28.7990294589219</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>69.12056791551183</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="U15" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="V15" t="n">
-        <v>69.12056791551183</v>
+        <v>46.19313699675482</v>
       </c>
       <c r="W15" t="n">
-        <v>69.12056791551183</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>69.12056791551183</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="C16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="D16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="E16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="F16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="G16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="H16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="I16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="J16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="K16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="L16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="M16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="N16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551203</v>
       </c>
       <c r="O16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="P16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="R16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="S16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="T16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="U16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="V16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="W16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="X16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.12056791551183</v>
+        <v>69.12056791551187</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="C17" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="D17" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="E17" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="F17" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="G17" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="H17" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="I17" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="T17" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="U17" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="V17" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="W17" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="X17" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="Y17" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
     </row>
     <row r="18">
@@ -28640,25 +28640,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="C18" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="D18" t="n">
-        <v>69.12056791551186</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>69.12056791551186</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="G18" t="n">
-        <v>46.19313699675352</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>46.19313699675406</v>
       </c>
       <c r="I18" t="n">
         <v>28.79902945892189</v>
@@ -28691,22 +28691,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>69.12056791551186</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>69.12056791551186</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="C19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="D19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="E19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="F19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="G19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="H19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="I19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="J19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="K19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="L19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="M19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551174</v>
       </c>
       <c r="N19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="O19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="P19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="R19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="S19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="T19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="U19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="V19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="W19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="X19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="C20" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="D20" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="E20" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="F20" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="G20" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="H20" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="I20" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="T20" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="U20" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="V20" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="W20" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="X20" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="Y20" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
     </row>
     <row r="21">
@@ -28877,25 +28877,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="F21" t="n">
-        <v>69.12056791551186</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>69.12056791551186</v>
+        <v>46.19313699675408</v>
       </c>
       <c r="H21" t="n">
-        <v>69.12056791551186</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>28.79902945892189</v>
@@ -28928,13 +28928,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>69.12056791551186</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>46.19313699675345</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="U21" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28943,10 +28943,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="Y21" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="C22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="D22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="E22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="F22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="G22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="H22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="I22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="J22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="K22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="L22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="M22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="N22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="O22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="P22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="R22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="S22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="T22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="U22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="V22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="W22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="X22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="C23" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="D23" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="E23" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="F23" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="G23" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="H23" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="I23" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="T23" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="U23" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="V23" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="W23" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="X23" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="Y23" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="C25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="D25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="E25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="F25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="G25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="H25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="I25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="J25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="K25" t="n">
-        <v>69.12056791551203</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="L25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="M25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551174</v>
       </c>
       <c r="N25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="O25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="P25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="R25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="S25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="T25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="U25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="V25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="W25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="X25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551187</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="C26" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="D26" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="E26" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="F26" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="G26" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="H26" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="I26" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="T26" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="U26" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="V26" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="W26" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="X26" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="Y26" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="C28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="D28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="E28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="F28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="G28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="H28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="I28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="J28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="K28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="L28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="M28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="N28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="O28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="P28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="R28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="S28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="T28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="U28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="V28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="W28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="X28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="Y28" t="n">
-        <v>69.12056791551193</v>
+        <v>69.12056791551194</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="C29" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="D29" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="E29" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="F29" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="G29" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="H29" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="I29" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="T29" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="U29" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="V29" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="W29" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="X29" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="Y29" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="C31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="D31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="E31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="F31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="G31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="H31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="I31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="J31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="K31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="L31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="M31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="N31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="O31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="P31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="R31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="S31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="T31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="U31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="V31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="W31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="X31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.12056791551184</v>
+        <v>69.12056791551186</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="C32" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="D32" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="E32" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="F32" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="G32" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="H32" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="I32" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="T32" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="U32" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="V32" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="W32" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="X32" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="Y32" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="C34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="D34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="E34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="F34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="G34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="H34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="I34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="J34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="K34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="L34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="M34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="N34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="O34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791550972</v>
       </c>
       <c r="P34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.12056791551187</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="R34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="S34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="T34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="U34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="V34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="W34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="X34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.12056791551186</v>
+        <v>69.12056791551194</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="C35" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="D35" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="E35" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="F35" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="G35" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="H35" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="I35" t="n">
         <v>83.65782722932782</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="T35" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="U35" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="V35" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="W35" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="X35" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="Y35" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
     </row>
     <row r="36">
@@ -30062,28 +30062,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="C36" t="n">
-        <v>35.67745770234964</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="F36" t="n">
-        <v>106.9803616587502</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>106.9803616587502</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>95.23723752690793</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>28.79902945892189</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30122,16 +30122,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>102.1156657703353</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>106.9803616587503</v>
       </c>
     </row>
     <row r="37">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="C37" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="D37" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="E37" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="F37" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="G37" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="H37" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="I37" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="S37" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="T37" t="n">
-        <v>43.18421067888229</v>
+        <v>43.18421067888119</v>
       </c>
       <c r="U37" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="V37" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="W37" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="X37" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="Y37" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="C38" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="D38" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="E38" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="F38" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="G38" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="H38" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="I38" t="n">
         <v>83.65782722932782</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="T38" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="U38" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="V38" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="W38" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="X38" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="Y38" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
     </row>
     <row r="39">
@@ -30299,28 +30299,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>23.93433357050739</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>106.9803616587502</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>106.9803616587502</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="F39" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="G39" t="n">
-        <v>106.9803616587502</v>
+        <v>6.878428243427521</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>95.23723752690793</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>28.79902945892189</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30359,7 +30359,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>106.9803616587503</v>
       </c>
     </row>
     <row r="40">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="C40" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="D40" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="E40" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="F40" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="G40" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="H40" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="I40" t="n">
-        <v>106.9803616587502</v>
+        <v>43.1842106788806</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="S40" t="n">
-        <v>43.18421067888232</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="T40" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="U40" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="V40" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="W40" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="X40" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
       <c r="Y40" t="n">
-        <v>106.9803616587502</v>
+        <v>106.9803616587503</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="C41" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="D41" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="E41" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="F41" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="G41" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="H41" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="I41" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="T41" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="U41" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="V41" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="W41" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="X41" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="Y41" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
     </row>
     <row r="42">
@@ -30536,25 +30536,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="C42" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="D42" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="E42" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="F42" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="G42" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="H42" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="I42" t="n">
         <v>28.79902945892189</v>
@@ -30587,25 +30587,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="T42" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="U42" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="V42" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="W42" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="X42" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="Y42" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="C43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="D43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="E43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="F43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="G43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="H43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="I43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="J43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="K43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="L43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="M43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="N43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="O43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="P43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="R43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="S43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="T43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="U43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="V43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="W43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="X43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
       <c r="Y43" t="n">
-        <v>37.8597937432383</v>
+        <v>37.85979374323833</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="C44" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="D44" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="E44" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="F44" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="G44" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="H44" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="I44" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="T44" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="U44" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="V44" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="W44" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="X44" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="Y44" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
     </row>
     <row r="45">
@@ -30773,25 +30773,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="C45" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="D45" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="E45" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="F45" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="G45" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="H45" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="I45" t="n">
         <v>28.79902945892189</v>
@@ -30824,25 +30824,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="T45" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="U45" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="V45" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="W45" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="X45" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="Y45" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
     </row>
     <row r="46">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="C46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="D46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="E46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="F46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="G46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="H46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="I46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="J46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="K46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="L46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="M46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="N46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="O46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="P46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="R46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="S46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="T46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="U46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="V46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="W46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="X46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
       <c r="Y46" t="n">
-        <v>37.85979374323836</v>
+        <v>37.85979374323842</v>
       </c>
     </row>
   </sheetData>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.289489977072252</v>
+        <v>3.289489977072251</v>
       </c>
       <c r="H11" t="n">
-        <v>33.68848922769121</v>
+        <v>33.6884892276912</v>
       </c>
       <c r="I11" t="n">
         <v>126.8180623410781</v>
@@ -31762,25 +31762,25 @@
         <v>279.1913499415363</v>
       </c>
       <c r="K11" t="n">
-        <v>418.4354606710048</v>
+        <v>418.4354606710047</v>
       </c>
       <c r="L11" t="n">
         <v>519.1061895568298</v>
       </c>
       <c r="M11" t="n">
-        <v>577.6056569365885</v>
+        <v>577.6056569365884</v>
       </c>
       <c r="N11" t="n">
-        <v>586.9519203339451</v>
+        <v>586.9519203339449</v>
       </c>
       <c r="O11" t="n">
         <v>554.2420543744328</v>
       </c>
       <c r="P11" t="n">
-        <v>473.0327705654615</v>
+        <v>473.0327705654614</v>
       </c>
       <c r="Q11" t="n">
-        <v>355.2279107615614</v>
+        <v>355.2279107615613</v>
       </c>
       <c r="R11" t="n">
         <v>206.633424772265</v>
@@ -31792,7 +31792,7 @@
         <v>14.39974237463379</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2631591981657801</v>
+        <v>0.26315919816578</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.760032302355216</v>
       </c>
       <c r="H12" t="n">
-        <v>16.99820670958854</v>
+        <v>16.99820670958853</v>
       </c>
       <c r="I12" t="n">
-        <v>60.59760339249319</v>
+        <v>60.59760339249318</v>
       </c>
       <c r="J12" t="n">
         <v>166.2844553729549</v>
@@ -31844,7 +31844,7 @@
         <v>284.2066196307543</v>
       </c>
       <c r="L12" t="n">
-        <v>382.1508733688377</v>
+        <v>382.1508733688376</v>
       </c>
       <c r="M12" t="n">
         <v>445.9520443292141</v>
@@ -31853,7 +31853,7 @@
         <v>457.7550679708858</v>
       </c>
       <c r="O12" t="n">
-        <v>418.7564574818571</v>
+        <v>418.756457481857</v>
       </c>
       <c r="P12" t="n">
         <v>336.0889753506202</v>
@@ -31862,13 +31862,13 @@
         <v>224.6665795076588</v>
       </c>
       <c r="R12" t="n">
-        <v>109.2763915444757</v>
+        <v>109.2763915444756</v>
       </c>
       <c r="S12" t="n">
-        <v>32.69182807225586</v>
+        <v>32.69182807225585</v>
       </c>
       <c r="T12" t="n">
-        <v>7.094165288879136</v>
+        <v>7.094165288879135</v>
       </c>
       <c r="U12" t="n">
         <v>0.115791598839159</v>
@@ -31908,25 +31908,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.475551958977698</v>
+        <v>1.475551958977697</v>
       </c>
       <c r="H13" t="n">
         <v>13.11899832618354</v>
       </c>
       <c r="I13" t="n">
-        <v>44.37387163907477</v>
+        <v>44.37387163907476</v>
       </c>
       <c r="J13" t="n">
         <v>104.3215234997232</v>
       </c>
       <c r="K13" t="n">
-        <v>171.4323094157725</v>
+        <v>171.4323094157724</v>
       </c>
       <c r="L13" t="n">
         <v>219.3743339738297</v>
       </c>
       <c r="M13" t="n">
-        <v>231.2994766241131</v>
+        <v>231.299476624113</v>
       </c>
       <c r="N13" t="n">
         <v>225.7996920497418</v>
@@ -31935,22 +31935,22 @@
         <v>208.5625623471386</v>
       </c>
       <c r="P13" t="n">
-        <v>178.4613023839935</v>
+        <v>178.4613023839934</v>
       </c>
       <c r="Q13" t="n">
         <v>123.5573554013052</v>
       </c>
       <c r="R13" t="n">
-        <v>66.34618171912446</v>
+        <v>66.34618171912444</v>
       </c>
       <c r="S13" t="n">
-        <v>25.71484641236587</v>
+        <v>25.71484641236586</v>
       </c>
       <c r="T13" t="n">
         <v>6.30463109745016</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08048465230787451</v>
+        <v>0.08048465230787449</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,22 +31996,22 @@
         <v>126.8180623410781</v>
       </c>
       <c r="J14" t="n">
-        <v>279.1913499415363</v>
+        <v>279.1913499415362</v>
       </c>
       <c r="K14" t="n">
-        <v>418.4354606710047</v>
+        <v>418.4354606710046</v>
       </c>
       <c r="L14" t="n">
-        <v>519.1061895568298</v>
+        <v>519.1061895568297</v>
       </c>
       <c r="M14" t="n">
-        <v>577.6056569365884</v>
+        <v>577.6056569365883</v>
       </c>
       <c r="N14" t="n">
-        <v>586.9519203339449</v>
+        <v>586.9519203339448</v>
       </c>
       <c r="O14" t="n">
-        <v>554.2420543744328</v>
+        <v>554.2420543744327</v>
       </c>
       <c r="P14" t="n">
         <v>473.0327705654614</v>
@@ -32023,7 +32023,7 @@
         <v>206.633424772265</v>
       </c>
       <c r="S14" t="n">
-        <v>74.95925285253401</v>
+        <v>74.95925285253399</v>
       </c>
       <c r="T14" t="n">
         <v>14.39974237463379</v>
@@ -32084,16 +32084,16 @@
         <v>382.1508733688376</v>
       </c>
       <c r="M15" t="n">
-        <v>445.9520443292141</v>
+        <v>445.952044329214</v>
       </c>
       <c r="N15" t="n">
-        <v>457.7550679708858</v>
+        <v>457.7550679708857</v>
       </c>
       <c r="O15" t="n">
-        <v>418.756457481857</v>
+        <v>418.7564574818569</v>
       </c>
       <c r="P15" t="n">
-        <v>336.0889753506202</v>
+        <v>336.0889753506201</v>
       </c>
       <c r="Q15" t="n">
         <v>224.6665795076588</v>
@@ -32102,10 +32102,10 @@
         <v>109.2763915444756</v>
       </c>
       <c r="S15" t="n">
-        <v>32.69182807225585</v>
+        <v>32.69182807225584</v>
       </c>
       <c r="T15" t="n">
-        <v>7.094165288879135</v>
+        <v>7.094165288879134</v>
       </c>
       <c r="U15" t="n">
         <v>0.115791598839159</v>
@@ -32148,7 +32148,7 @@
         <v>1.475551958977697</v>
       </c>
       <c r="H16" t="n">
-        <v>13.11899832618354</v>
+        <v>13.11899832618353</v>
       </c>
       <c r="I16" t="n">
         <v>44.37387163907476</v>
@@ -32178,16 +32178,16 @@
         <v>123.5573554013052</v>
       </c>
       <c r="R16" t="n">
-        <v>66.34618171912444</v>
+        <v>66.34618171912443</v>
       </c>
       <c r="S16" t="n">
         <v>25.71484641236586</v>
       </c>
       <c r="T16" t="n">
-        <v>6.30463109745016</v>
+        <v>6.304631097450159</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08048465230787449</v>
+        <v>0.08048465230787448</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34147,7 +34147,7 @@
         <v>554.2420543744328</v>
       </c>
       <c r="P41" t="n">
-        <v>473.0327705654614</v>
+        <v>473.0327705654618</v>
       </c>
       <c r="Q41" t="n">
         <v>355.2279107615613</v>
@@ -35416,19 +35416,19 @@
         <v>283.3397745868426</v>
       </c>
       <c r="M11" t="n">
-        <v>347.2594237093158</v>
+        <v>347.2594237093157</v>
       </c>
       <c r="N11" t="n">
-        <v>357.5388567373541</v>
+        <v>357.538856737354</v>
       </c>
       <c r="O11" t="n">
         <v>324.143842952746</v>
       </c>
       <c r="P11" t="n">
-        <v>241.799774810192</v>
+        <v>241.7997748101919</v>
       </c>
       <c r="Q11" t="n">
-        <v>132.9222208871119</v>
+        <v>132.9222208871118</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>39.44682870628822</v>
+        <v>39.44682870628819</v>
       </c>
       <c r="K12" t="n">
         <v>146.3651806563954</v>
       </c>
       <c r="L12" t="n">
-        <v>407.3763238040666</v>
+        <v>243.5964935889634</v>
       </c>
       <c r="M12" t="n">
-        <v>500.933673274794</v>
+        <v>303.8180104071957</v>
       </c>
       <c r="N12" t="n">
-        <v>326.4133558875525</v>
+        <v>468.1130038425713</v>
       </c>
       <c r="O12" t="n">
-        <v>276.1602130374126</v>
+        <v>276.1602130374125</v>
       </c>
       <c r="P12" t="n">
-        <v>202.11456793629</v>
+        <v>202.1145679362899</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.68480542163732</v>
+        <v>294.7620931574864</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.11855739183251</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>80.08291129856227</v>
+        <v>80.08291129856229</v>
       </c>
       <c r="K13" t="n">
         <v>218.2833855054014</v>
@@ -35580,13 +35580,13 @@
         <v>339.0524323444822</v>
       </c>
       <c r="O13" t="n">
-        <v>302.2682581766901</v>
+        <v>302.2682581766902</v>
       </c>
       <c r="P13" t="n">
         <v>244.8604295643988</v>
       </c>
       <c r="Q13" t="n">
-        <v>106.5158800651226</v>
+        <v>106.5158800651227</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.14544541484997</v>
+        <v>98.14544541484992</v>
       </c>
       <c r="K14" t="n">
-        <v>198.3456096260242</v>
+        <v>198.3456096260241</v>
       </c>
       <c r="L14" t="n">
-        <v>283.3397745868426</v>
+        <v>283.3397745868425</v>
       </c>
       <c r="M14" t="n">
-        <v>347.2594237093157</v>
+        <v>347.2594237093156</v>
       </c>
       <c r="N14" t="n">
-        <v>357.538856737354</v>
+        <v>357.5388567373539</v>
       </c>
       <c r="O14" t="n">
-        <v>324.143842952746</v>
+        <v>324.1438429527459</v>
       </c>
       <c r="P14" t="n">
-        <v>241.7997748101919</v>
+        <v>241.7997748101918</v>
       </c>
       <c r="Q14" t="n">
         <v>132.9222208871118</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>39.44682870628819</v>
+        <v>39.44682870628816</v>
       </c>
       <c r="K15" t="n">
-        <v>146.3651806563954</v>
+        <v>332.7403563518549</v>
       </c>
       <c r="L15" t="n">
-        <v>500.9336732747939</v>
+        <v>243.5964935889634</v>
       </c>
       <c r="M15" t="n">
-        <v>407.3763238040673</v>
+        <v>303.8180104071957</v>
       </c>
       <c r="N15" t="n">
-        <v>326.4133558875525</v>
+        <v>500.9336732747936</v>
       </c>
       <c r="O15" t="n">
         <v>276.1602130374125</v>
@@ -35744,7 +35744,7 @@
         <v>202.1145679362899</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.68480542163729</v>
+        <v>84.68480542163726</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>80.08291129856225</v>
+        <v>80.08291129856228</v>
       </c>
       <c r="K16" t="n">
         <v>218.2833855054014</v>
@@ -35811,19 +35811,19 @@
         <v>316.0849271496577</v>
       </c>
       <c r="M16" t="n">
-        <v>340.0039215014655</v>
+        <v>340.0039215014654</v>
       </c>
       <c r="N16" t="n">
-        <v>339.0524323444822</v>
+        <v>339.0524323444824</v>
       </c>
       <c r="O16" t="n">
         <v>302.2682581766901</v>
       </c>
       <c r="P16" t="n">
-        <v>244.8604295643987</v>
+        <v>244.8604295643988</v>
       </c>
       <c r="Q16" t="n">
-        <v>106.5158800651226</v>
+        <v>106.5158800651227</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>39.44682870628819</v>
       </c>
       <c r="K18" t="n">
-        <v>410.830417668974</v>
+        <v>146.3651806563954</v>
       </c>
       <c r="L18" t="n">
         <v>243.5964935889634</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8180104071957</v>
+        <v>500.9336732747938</v>
       </c>
       <c r="N18" t="n">
-        <v>422.8436119576758</v>
+        <v>326.4133558875525</v>
       </c>
       <c r="O18" t="n">
         <v>276.1602130374125</v>
       </c>
       <c r="P18" t="n">
-        <v>202.1145679362899</v>
+        <v>365.8943981513931</v>
       </c>
       <c r="Q18" t="n">
         <v>84.68480542163729</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>80.08291129856228</v>
+        <v>80.08291129856229</v>
       </c>
       <c r="K19" t="n">
         <v>218.2833855054014</v>
@@ -36048,13 +36048,13 @@
         <v>316.0849271496577</v>
       </c>
       <c r="M19" t="n">
-        <v>340.0039215014655</v>
+        <v>340.0039215014654</v>
       </c>
       <c r="N19" t="n">
-        <v>339.0524323444822</v>
+        <v>339.0524323444823</v>
       </c>
       <c r="O19" t="n">
-        <v>302.2682581766901</v>
+        <v>302.2682581766902</v>
       </c>
       <c r="P19" t="n">
         <v>244.8604295643988</v>
@@ -36127,7 +36127,7 @@
         <v>283.3397745868426</v>
       </c>
       <c r="M20" t="n">
-        <v>347.2594237093157</v>
+        <v>347.2594237093155</v>
       </c>
       <c r="N20" t="n">
         <v>357.538856737354</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>39.44682870628819</v>
+        <v>165.537864046697</v>
       </c>
       <c r="K21" t="n">
         <v>146.3651806563954</v>
@@ -36206,19 +36206,19 @@
         <v>243.5964935889634</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8180104071957</v>
+        <v>500.9336732747938</v>
       </c>
       <c r="N21" t="n">
         <v>326.4133558875525</v>
       </c>
       <c r="O21" t="n">
-        <v>276.1602130374125</v>
+        <v>304.7304505202745</v>
       </c>
       <c r="P21" t="n">
-        <v>343.8142158913102</v>
+        <v>202.1145679362899</v>
       </c>
       <c r="Q21" t="n">
-        <v>294.7620931574864</v>
+        <v>84.68480542163729</v>
       </c>
       <c r="R21" t="n">
         <v>9.11855739183251</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>80.08291129856228</v>
+        <v>80.08291129856229</v>
       </c>
       <c r="K22" t="n">
         <v>218.2833855054014</v>
@@ -36291,7 +36291,7 @@
         <v>339.0524323444822</v>
       </c>
       <c r="O22" t="n">
-        <v>302.2682581766901</v>
+        <v>302.2682581766902</v>
       </c>
       <c r="P22" t="n">
         <v>244.8604295643988</v>
@@ -36358,10 +36358,10 @@
         <v>98.14544541484997</v>
       </c>
       <c r="K23" t="n">
-        <v>522.4910221971888</v>
+        <v>198.3456096260242</v>
       </c>
       <c r="L23" t="n">
-        <v>283.3397745868426</v>
+        <v>411.3466527114105</v>
       </c>
       <c r="M23" t="n">
         <v>796.7729572021482</v>
@@ -36373,10 +36373,10 @@
         <v>704.9440242154914</v>
       </c>
       <c r="P23" t="n">
-        <v>241.7997748101919</v>
+        <v>563.5984829816746</v>
       </c>
       <c r="Q23" t="n">
-        <v>258.5823946119986</v>
+        <v>132.9222208871118</v>
       </c>
       <c r="R23" t="n">
         <v>56.76430683111531</v>
@@ -36437,19 +36437,19 @@
         <v>39.44682870628819</v>
       </c>
       <c r="K24" t="n">
-        <v>410.830417668974</v>
+        <v>146.3651806563954</v>
       </c>
       <c r="L24" t="n">
         <v>243.5964935889634</v>
       </c>
       <c r="M24" t="n">
-        <v>576.5687263703252</v>
+        <v>755.5539083160795</v>
       </c>
       <c r="N24" t="n">
-        <v>326.4133558875525</v>
+        <v>805.755730231106</v>
       </c>
       <c r="O24" t="n">
-        <v>670.022532314142</v>
+        <v>276.1602130374125</v>
       </c>
       <c r="P24" t="n">
         <v>202.1145679362899</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.08291129856228</v>
+        <v>80.08291129856229</v>
       </c>
       <c r="K25" t="n">
-        <v>218.2833855054016</v>
+        <v>218.2833855054014</v>
       </c>
       <c r="L25" t="n">
         <v>316.0849271496577</v>
       </c>
       <c r="M25" t="n">
-        <v>340.0039215014655</v>
+        <v>340.0039215014654</v>
       </c>
       <c r="N25" t="n">
-        <v>339.0524323444822</v>
+        <v>339.0524323444823</v>
       </c>
       <c r="O25" t="n">
-        <v>302.2682581766901</v>
+        <v>302.2682581766902</v>
       </c>
       <c r="P25" t="n">
         <v>244.8604295643988</v>
@@ -36598,7 +36598,7 @@
         <v>522.4910221971888</v>
       </c>
       <c r="L26" t="n">
-        <v>283.3397745868426</v>
+        <v>701.000989137293</v>
       </c>
       <c r="M26" t="n">
         <v>347.2594237093157</v>
@@ -36610,13 +36610,13 @@
         <v>704.9440242154914</v>
       </c>
       <c r="P26" t="n">
-        <v>563.5984829816746</v>
+        <v>241.7997748101919</v>
       </c>
       <c r="Q26" t="n">
-        <v>217.2006047612749</v>
+        <v>132.9222208871118</v>
       </c>
       <c r="R26" t="n">
-        <v>56.76430683111531</v>
+        <v>45.18018432631007</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>146.3651806563954</v>
       </c>
       <c r="L27" t="n">
-        <v>243.5964935889634</v>
+        <v>614.4368388924227</v>
       </c>
       <c r="M27" t="n">
         <v>303.8180104071957</v>
       </c>
       <c r="N27" t="n">
-        <v>805.755730231106</v>
+        <v>326.4133558875525</v>
       </c>
       <c r="O27" t="n">
-        <v>276.1602130374125</v>
+        <v>517.935371346454</v>
       </c>
       <c r="P27" t="n">
-        <v>434.6546207174922</v>
+        <v>520.577336576227</v>
       </c>
       <c r="Q27" t="n">
-        <v>294.7620931574864</v>
+        <v>84.68480542163729</v>
       </c>
       <c r="R27" t="n">
-        <v>9.11855739183251</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.08291129856235</v>
+        <v>80.08291129856237</v>
       </c>
       <c r="K28" t="n">
         <v>218.2833855054015</v>
       </c>
       <c r="L28" t="n">
-        <v>316.0849271496577</v>
+        <v>316.0849271496578</v>
       </c>
       <c r="M28" t="n">
-        <v>340.0039215014655</v>
+        <v>340.0039215014656</v>
       </c>
       <c r="N28" t="n">
         <v>339.0524323444823</v>
@@ -36768,7 +36768,7 @@
         <v>302.2682581766902</v>
       </c>
       <c r="P28" t="n">
-        <v>244.8604295643988</v>
+        <v>244.8604295643989</v>
       </c>
       <c r="Q28" t="n">
         <v>106.5158800651227</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>98.14544541484997</v>
+        <v>267.2420605869237</v>
       </c>
       <c r="K29" t="n">
         <v>522.4910221971888</v>
       </c>
       <c r="L29" t="n">
-        <v>283.3397745868426</v>
+        <v>701.000989137293</v>
       </c>
       <c r="M29" t="n">
-        <v>796.7729572021482</v>
+        <v>347.2594237093157</v>
       </c>
       <c r="N29" t="n">
         <v>794.8857811493382</v>
       </c>
       <c r="O29" t="n">
-        <v>704.9440242154914</v>
+        <v>324.143842952746</v>
       </c>
       <c r="P29" t="n">
-        <v>241.7997748101919</v>
+        <v>563.5984829816746</v>
       </c>
       <c r="Q29" t="n">
-        <v>258.5823946119986</v>
+        <v>180.3395714735692</v>
       </c>
       <c r="R29" t="n">
         <v>56.76430683111531</v>
@@ -36917,13 +36917,13 @@
         <v>243.5964935889634</v>
       </c>
       <c r="M30" t="n">
-        <v>746.435350924247</v>
+        <v>769.5230741571957</v>
       </c>
       <c r="N30" t="n">
-        <v>805.755730231106</v>
+        <v>388.8056877214281</v>
       </c>
       <c r="O30" t="n">
-        <v>276.1602130374125</v>
+        <v>670.022532314142</v>
       </c>
       <c r="P30" t="n">
         <v>202.1145679362899</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.08291129856227</v>
+        <v>80.08291129856228</v>
       </c>
       <c r="K31" t="n">
         <v>218.2833855054014</v>
@@ -37008,7 +37008,7 @@
         <v>244.8604295643988</v>
       </c>
       <c r="Q31" t="n">
-        <v>106.5158800651226</v>
+        <v>106.5158800651227</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>139.2054538011818</v>
+        <v>267.2420605869237</v>
       </c>
       <c r="K32" t="n">
-        <v>522.4910221971888</v>
+        <v>198.3456096260242</v>
       </c>
       <c r="L32" t="n">
-        <v>283.3397745868426</v>
+        <v>701.000989137293</v>
       </c>
       <c r="M32" t="n">
-        <v>347.2594237093157</v>
+        <v>394.7863124353078</v>
       </c>
       <c r="N32" t="n">
         <v>794.8857811493382</v>
@@ -37087,10 +37087,10 @@
         <v>563.5984829816746</v>
       </c>
       <c r="Q32" t="n">
-        <v>345.2372115470165</v>
+        <v>132.9222208871118</v>
       </c>
       <c r="R32" t="n">
-        <v>56.76430683111531</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>243.5964935889634</v>
       </c>
       <c r="M33" t="n">
-        <v>769.5230741571957</v>
+        <v>303.8180104071957</v>
       </c>
       <c r="N33" t="n">
-        <v>326.4133558875525</v>
+        <v>805.755730231106</v>
       </c>
       <c r="O33" t="n">
         <v>670.022532314142</v>
       </c>
       <c r="P33" t="n">
-        <v>264.5068997701658</v>
+        <v>259.9881465684447</v>
       </c>
       <c r="Q33" t="n">
         <v>84.68480542163729</v>
       </c>
       <c r="R33" t="n">
-        <v>9.11855739183251</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.08291129856228</v>
+        <v>80.08291129856237</v>
       </c>
       <c r="K34" t="n">
-        <v>218.2833855054014</v>
+        <v>218.2833855054015</v>
       </c>
       <c r="L34" t="n">
-        <v>316.0849271496577</v>
+        <v>316.0849271496578</v>
       </c>
       <c r="M34" t="n">
-        <v>340.0039215014655</v>
+        <v>340.0039215014656</v>
       </c>
       <c r="N34" t="n">
-        <v>339.0524323444822</v>
+        <v>339.0524323444823</v>
       </c>
       <c r="O34" t="n">
-        <v>302.2682581766901</v>
+        <v>302.268258176688</v>
       </c>
       <c r="P34" t="n">
-        <v>244.8604295643988</v>
+        <v>244.8604295643989</v>
       </c>
       <c r="Q34" t="n">
         <v>106.5158800651227</v>
@@ -37394,19 +37394,19 @@
         <v>303.8180104071957</v>
       </c>
       <c r="N36" t="n">
-        <v>453.4168313410405</v>
+        <v>500.9336732747939</v>
       </c>
       <c r="O36" t="n">
-        <v>500.9336732747939</v>
+        <v>276.1602130374125</v>
       </c>
       <c r="P36" t="n">
-        <v>202.1145679362899</v>
+        <v>388.4897436317503</v>
       </c>
       <c r="Q36" t="n">
         <v>84.68480542163729</v>
       </c>
       <c r="R36" t="n">
-        <v>9.11855739183251</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>98.14544541484997</v>
       </c>
       <c r="K38" t="n">
-        <v>198.3456096260246</v>
+        <v>198.3456096260242</v>
       </c>
       <c r="L38" t="n">
         <v>283.3397745868426</v>
@@ -37625,10 +37625,10 @@
         <v>146.3651806563954</v>
       </c>
       <c r="L39" t="n">
-        <v>398.2577664122348</v>
+        <v>500.9336732747939</v>
       </c>
       <c r="M39" t="n">
-        <v>500.9336732747939</v>
+        <v>303.8180104071957</v>
       </c>
       <c r="N39" t="n">
         <v>326.4133558875525</v>
@@ -37637,13 +37637,13 @@
         <v>276.1602130374125</v>
       </c>
       <c r="P39" t="n">
-        <v>202.1145679362899</v>
+        <v>305.6728813331613</v>
       </c>
       <c r="Q39" t="n">
         <v>84.68480542163729</v>
       </c>
       <c r="R39" t="n">
-        <v>9.11855739183251</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>324.143842952746</v>
       </c>
       <c r="P41" t="n">
-        <v>241.7997748101919</v>
+        <v>241.7997748101923</v>
       </c>
       <c r="Q41" t="n">
         <v>132.9222208871118</v>
@@ -37865,19 +37865,19 @@
         <v>243.5964935889634</v>
       </c>
       <c r="M42" t="n">
-        <v>303.8180104071957</v>
+        <v>365.8943981513936</v>
       </c>
       <c r="N42" t="n">
         <v>326.4133558875525</v>
       </c>
       <c r="O42" t="n">
-        <v>426.9784183842654</v>
+        <v>276.1602130374125</v>
       </c>
       <c r="P42" t="n">
-        <v>202.1145679362899</v>
+        <v>500.9336732747939</v>
       </c>
       <c r="Q42" t="n">
-        <v>294.7620931574864</v>
+        <v>84.68480542163729</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>48.82213712628872</v>
+        <v>48.82213712628876</v>
       </c>
       <c r="K43" t="n">
         <v>187.0226113331279</v>
       </c>
       <c r="L43" t="n">
-        <v>284.8241529773841</v>
+        <v>284.8241529773842</v>
       </c>
       <c r="M43" t="n">
-        <v>308.7431473291919</v>
+        <v>308.743147329192</v>
       </c>
       <c r="N43" t="n">
         <v>307.7916581722087</v>
@@ -37956,7 +37956,7 @@
         <v>213.5996553921252</v>
       </c>
       <c r="Q43" t="n">
-        <v>75.2551058928491</v>
+        <v>75.25510589284914</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>198.3456096260242</v>
       </c>
       <c r="L44" t="n">
-        <v>283.3397745868426</v>
+        <v>283.339774586843</v>
       </c>
       <c r="M44" t="n">
         <v>347.2594237093157</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>39.44682870628819</v>
+        <v>92.40465905865359</v>
       </c>
       <c r="K45" t="n">
         <v>146.3651806563954</v>
       </c>
       <c r="L45" t="n">
-        <v>500.9336732747939</v>
+        <v>243.5964935889634</v>
       </c>
       <c r="M45" t="n">
         <v>303.8180104071957</v>
       </c>
       <c r="N45" t="n">
-        <v>429.9716692844239</v>
+        <v>326.4133558875525</v>
       </c>
       <c r="O45" t="n">
         <v>276.1602130374125</v>
       </c>
       <c r="P45" t="n">
-        <v>202.1145679362899</v>
+        <v>500.9336732747939</v>
       </c>
       <c r="Q45" t="n">
         <v>84.68480542163729</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.11855739183251</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>48.82213712628879</v>
+        <v>48.82213712628884</v>
       </c>
       <c r="K46" t="n">
-        <v>187.0226113331279</v>
+        <v>187.022611333128</v>
       </c>
       <c r="L46" t="n">
         <v>284.8241529773842</v>
@@ -38184,7 +38184,7 @@
         <v>308.743147329192</v>
       </c>
       <c r="N46" t="n">
-        <v>307.7916581722087</v>
+        <v>307.7916581722088</v>
       </c>
       <c r="O46" t="n">
         <v>271.0074840044167</v>
@@ -38193,7 +38193,7 @@
         <v>213.5996553921253</v>
       </c>
       <c r="Q46" t="n">
-        <v>75.25510589284917</v>
+        <v>75.25510589284923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
